--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,121 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4425000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4346000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4642000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4314000</v>
       </c>
-      <c r="F8" s="3">
-        <v>3988000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>3973000</v>
+      </c>
+      <c r="I8" s="3">
         <v>4542000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4278000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4028000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3619000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3626000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3532000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3593000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3522000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3339000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,96 +992,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
-        <v>23000</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1000</v>
       </c>
       <c r="J14" s="3">
         <v>2000</v>
       </c>
       <c r="K14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M14" s="3">
         <v>906000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>32000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
         <v>15000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G15" s="3">
         <v>19000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>18000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>2000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3">
-        <v>1000</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4311000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3772000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4761000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3808000</v>
       </c>
-      <c r="F17" s="3">
-        <v>3634000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="I17" s="3">
         <v>3977000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3657000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3489000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3072000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3935000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2943000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2976000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2966000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2950000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>574000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-119000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>506000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>354000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>565000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>621000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>539000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>547000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-309000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>589000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>617000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>556000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>389000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,52 +1233,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-18000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,170 +1299,194 @@
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>542000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>604000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>523000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>533000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-319000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>579000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>603000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>548000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>381000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F22" s="3">
         <v>115000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>70000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>71000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>71000</v>
       </c>
       <c r="H22" s="3">
         <v>71000</v>
       </c>
       <c r="I22" s="3">
+        <v>71000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K22" s="3">
         <v>72000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>97000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>69000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>69000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>70000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>72000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>185000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>481000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-250000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>421000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>268000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>467000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>532000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>451000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>435000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-388000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>510000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>533000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>475000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>196000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-89000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>58000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>106000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>66000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>81000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>97000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>92000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>122000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>40000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>415000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-161000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>363000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>252000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>361000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>522000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>385000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>354000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-485000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>418000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>411000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>435000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>193000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>415000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-161000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>363000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>252000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>361000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>522000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>385000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>354000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-485000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>418000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>411000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>435000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>193000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,52 +1679,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>38000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-32000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>13000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>1300000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F32" s="3">
         <v>16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>18000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-161000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>363000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>252000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>399000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>490000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>385000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>367000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>815000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>418000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>411000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>435000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>193000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-161000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>363000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>252000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>399000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>490000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>385000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>367000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>815000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>418000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>411000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>435000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>193000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6202000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2563000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2939000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3314000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1593000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2345000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1460000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1775000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2257000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1628000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1965000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1978000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1923000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2722000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,52 +2224,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>465000</v>
+      </c>
+      <c r="F43" s="3">
         <v>440000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>553000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>607000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>570000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>592000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>574000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>480000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>396000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>370000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>365000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>465000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>430000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,52 +2424,64 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>130835000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>131786000</v>
+      </c>
+      <c r="F47" s="3">
         <v>130319000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>124870000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>120764000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>114097000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>111968000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>111412000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>109209000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>112163000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>110743000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>109562000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>107618000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>105770000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2280,17 +2494,17 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>12000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>11000</v>
       </c>
       <c r="K48" s="3">
         <v>11000</v>
@@ -2299,19 +2513,25 @@
         <v>11000</v>
       </c>
       <c r="M48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O48" s="3">
         <v>23000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>24000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>24000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2325,25 +2545,25 @@
         <v>1778000</v>
       </c>
       <c r="G49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="I49" s="3">
         <v>1782000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1757000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1750000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1368000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1368000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2273000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2273000</v>
       </c>
       <c r="N49" s="3">
         <v>2273000</v>
@@ -2354,8 +2574,14 @@
       <c r="P49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,8 +2674,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2486,8 +2724,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>318649000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>334761000</v>
+      </c>
+      <c r="F54" s="3">
         <v>325278000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>322259000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>314299000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>298147000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>303850000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>298832000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>279237000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>281763000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>276785000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>271651000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>267468000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>261627000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,13 +2914,19 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>300000</v>
@@ -2668,82 +2934,94 @@
       <c r="F58" s="3">
         <v>300000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+      <c r="G58" s="3">
+        <v>300000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+        <v>300000</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>250000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>450000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>450000</v>
       </c>
       <c r="M58" s="3">
         <v>450000</v>
       </c>
       <c r="N58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="O58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="P58" s="3">
         <v>200000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>277502000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>295223000</v>
+      </c>
+      <c r="F59" s="3">
         <v>284167000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>283850000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>278638000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>265262000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>277551000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>273082000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>252419000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>253550000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>247302000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>242933000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>240097000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>234761000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,52 +3064,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6748000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6067000</v>
+      </c>
+      <c r="F61" s="3">
         <v>6070000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5621000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5572000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5839000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5804000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5826000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5648000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4894000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4900000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4901000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5133000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5345000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2874,8 +3164,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>302074000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>315072000</v>
+      </c>
+      <c r="F66" s="3">
         <v>305279000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>303804000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>297882000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>283797000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>288780000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>283655000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>263252000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>264441000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>260471000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>255655000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>252495000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>247149000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8500000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>8854000</v>
+      </c>
+      <c r="F72" s="3">
         <v>8559000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8878000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>8679000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>8551000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>8615000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>8302000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>8052000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>8399000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7738000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7511000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>7287000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>7043000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16575000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19689000</v>
+      </c>
+      <c r="F76" s="3">
         <v>19999000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>18455000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16417000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14350000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15070000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>15177000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15985000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17322000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>16314000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>15996000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14973000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14478000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-161000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>363000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>252000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>399000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>490000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>385000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>367000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>815000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>418000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>411000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>435000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>193000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,8 +4013,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,8 +4059,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-295000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>909000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>402000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>492000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>140000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>179000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>407000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>93000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>109000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>595000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,8 +4383,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3989,8 +4429,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3214000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>1074000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-595000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-780000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-505000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-74000</v>
+        <v>-79000</v>
       </c>
       <c r="E96" s="3">
         <v>-76000</v>
       </c>
       <c r="F96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-77000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-72000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-72000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-73000</v>
       </c>
       <c r="J96" s="3">
         <v>-72000</v>
       </c>
       <c r="K96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-64000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-66000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-67000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-65000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-58000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4799,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2442000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2667000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2146000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1878000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1712000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1551000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1150000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>804000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1084000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>888000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>360000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>467000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>591000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>737000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,48 +4899,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3639000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-375000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1721000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-752000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>885000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-315000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-482000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>629000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-337000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>55000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-799000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-722000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3517000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4425000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4346000</v>
       </c>
-      <c r="F8" s="3">
-        <v>4642000</v>
-      </c>
       <c r="G8" s="3">
+        <v>4640000</v>
+      </c>
+      <c r="H8" s="3">
         <v>4314000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3973000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4542000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4278000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4028000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3619000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3626000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3532000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3593000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3522000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3339000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,84 +1026,87 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2000</v>
       </c>
       <c r="J14" s="3">
         <v>2000</v>
       </c>
       <c r="K14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>906000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>4000</v>
       </c>
       <c r="P14" s="3">
         <v>4000</v>
       </c>
       <c r="Q14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R14" s="3">
         <v>32000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>15000</v>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>15000</v>
       </c>
       <c r="G15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H15" s="3">
         <v>19000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>2000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1000</v>
       </c>
       <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="3">
         <v>1000</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>1000</v>
@@ -1092,14 +1114,17 @@
       <c r="P15" s="3">
         <v>1000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>1000</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3580000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4311000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3772000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4761000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3808000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3619000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3977000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3657000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3489000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3072000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3935000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2943000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2976000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2966000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2950000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E18" s="3">
         <v>114000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>574000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-119000</v>
-      </c>
       <c r="G18" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="H18" s="3">
         <v>506000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>354000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>565000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>621000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>539000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>547000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-309000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>589000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>617000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>556000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>389000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,58 +1267,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-19000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-16000</v>
-      </c>
       <c r="G20" s="3">
-        <v>-15000</v>
+        <v>-14000</v>
       </c>
       <c r="H20" s="3">
         <v>-15000</v>
       </c>
       <c r="I20" s="3">
-        <v>-27000</v>
+        <v>-15000</v>
       </c>
       <c r="J20" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-18000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-10000</v>
       </c>
       <c r="N20" s="3">
         <v>-10000</v>
       </c>
       <c r="O20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,188 +1341,200 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>542000</v>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>549000</v>
+      </c>
+      <c r="K21" s="3">
         <v>604000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>523000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>533000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-319000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>579000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>603000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>548000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>381000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E22" s="3">
         <v>65000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>74000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>115000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>70000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>71000</v>
       </c>
       <c r="I22" s="3">
         <v>71000</v>
       </c>
       <c r="J22" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K22" s="3">
         <v>71000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>72000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>97000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>69000</v>
       </c>
       <c r="N22" s="3">
         <v>69000</v>
       </c>
       <c r="O22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="P22" s="3">
         <v>70000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>72000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>185000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E23" s="3">
         <v>34000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>481000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-250000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>421000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>268000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>467000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>532000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>451000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>435000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-388000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>510000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>533000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>475000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>196000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-18000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>66000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-89000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>58000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>106000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>92000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>122000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E26" s="3">
         <v>52000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>415000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-161000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>363000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>252000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>361000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>522000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>385000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>354000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-485000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>418000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>411000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>435000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>193000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E27" s="3">
         <v>52000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>415000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-161000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>363000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>252000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>361000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>522000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>385000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>354000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-485000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>418000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>411000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>435000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>193000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,20 +1742,23 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>17000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1706,37 +1766,40 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>38000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-32000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>13000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1300000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>19000</v>
       </c>
-      <c r="F32" s="3">
-        <v>16000</v>
-      </c>
       <c r="G32" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="H32" s="3">
         <v>15000</v>
       </c>
       <c r="I32" s="3">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="J32" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K32" s="3">
         <v>18000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>10000</v>
       </c>
       <c r="N32" s="3">
         <v>10000</v>
       </c>
       <c r="O32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E33" s="3">
         <v>52000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>432000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-161000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>363000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>252000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>399000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>490000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>385000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>367000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>815000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>418000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>411000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>435000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>193000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E35" s="3">
         <v>52000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>432000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-161000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>363000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>252000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>399000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>490000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>385000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>367000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>815000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>418000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>411000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>435000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>193000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4201000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6202000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2563000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2939000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3314000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1593000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2345000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1460000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1775000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2257000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1628000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1965000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1978000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1923000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2722000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,58 +2319,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E43" s="3">
         <v>562000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>465000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>440000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>553000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>607000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>570000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>592000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>574000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>480000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>396000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>370000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>365000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>465000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>430000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,58 +2531,64 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>141960000</v>
+      </c>
+      <c r="E47" s="3">
         <v>130835000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>131786000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>130319000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>124870000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>120764000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>114097000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>111968000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111412000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>109209000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>112163000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>110743000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>109562000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>107618000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>105770000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2500,14 +2607,14 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
-        <v>12000</v>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3">
         <v>12000</v>
       </c>
       <c r="K48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L48" s="3">
         <v>11000</v>
@@ -2519,19 +2626,22 @@
         <v>11000</v>
       </c>
       <c r="O48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="P48" s="3">
         <v>23000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>24000</v>
       </c>
       <c r="Q48" s="3">
         <v>24000</v>
       </c>
       <c r="R48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="S48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2551,22 +2661,22 @@
         <v>1778000</v>
       </c>
       <c r="I49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="J49" s="3">
         <v>1782000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1757000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1368000</v>
       </c>
       <c r="M49" s="3">
         <v>1368000</v>
       </c>
       <c r="N49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="O49" s="3">
         <v>2273000</v>
@@ -2580,8 +2690,11 @@
       <c r="R49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,8 +2796,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2730,8 +2849,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>339659000</v>
+      </c>
+      <c r="E54" s="3">
         <v>318649000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>334761000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>325278000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>322259000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>314299000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>298147000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>303850000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>298832000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>279237000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>281763000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>276785000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>271651000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>267468000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>261627000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,8 +3050,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2929,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>300000</v>
@@ -2940,20 +3073,20 @@
       <c r="H58" s="3">
         <v>300000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="I58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>250000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>450000</v>
       </c>
       <c r="N58" s="3">
         <v>450000</v>
@@ -2962,66 +3095,72 @@
         <v>450000</v>
       </c>
       <c r="P58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>295071000</v>
+      </c>
+      <c r="E59" s="3">
         <v>277502000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>295223000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>284167000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>283850000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>278638000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>265262000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>277551000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>273082000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>252419000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>253550000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>247302000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>242933000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>240097000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>234761000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,58 +3209,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6736000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6748000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6067000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6070000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5621000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5572000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5839000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5804000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5826000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5648000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4894000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4900000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4901000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5133000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5345000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3170,8 +3315,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>318928000</v>
+      </c>
+      <c r="E66" s="3">
         <v>302074000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>315072000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>305279000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>303804000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>297882000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>283797000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>288780000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>283655000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>263252000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>264441000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>260471000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>255655000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>252495000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>247149000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8327000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8500000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8854000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8559000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8878000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8679000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8551000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8615000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8302000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8052000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8399000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7738000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7511000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7287000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7043000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20731000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16575000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19689000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19999000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18455000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16417000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14350000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15070000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15177000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15985000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17322000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16314000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15996000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14973000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14478000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E81" s="3">
         <v>52000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>432000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-161000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>363000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>252000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>399000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>490000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>385000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>367000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>815000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>418000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>411000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>435000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>193000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,8 +4212,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4065,8 +4263,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E89" s="3">
         <v>455000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-295000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>909000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>402000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>492000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>140000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>179000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>407000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>93000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>109000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>595000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,8 +4604,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4435,8 +4655,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4106000</v>
+      </c>
+      <c r="E94" s="3">
         <v>742000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1074000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-595000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-780000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-505000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-79000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-76000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-76000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-72000</v>
       </c>
       <c r="J96" s="3">
         <v>-72000</v>
       </c>
       <c r="K96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-73000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-72000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-64000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-66000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-67000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-58000</v>
       </c>
       <c r="R96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5047,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1589000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2442000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2667000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2146000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1878000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1712000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1551000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1150000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>804000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1084000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>888000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>360000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>467000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>591000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>737000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4905,54 +5153,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2001000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3639000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-376000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-375000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1721000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-752000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>885000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-315000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-482000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>629000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-337000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-799000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-722000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5361000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3517000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4425000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4346000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4640000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4314000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3973000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4542000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4278000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4028000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3619000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3626000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3532000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3593000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3522000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3339000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,49 +1048,52 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2000</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
       </c>
       <c r="L14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>906000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>4000</v>
       </c>
       <c r="Q14" s="3">
         <v>4000</v>
       </c>
       <c r="R14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S14" s="3">
         <v>32000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,35 +1103,35 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>15000</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>15000</v>
       </c>
       <c r="H15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I15" s="3">
         <v>19000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>2000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1000</v>
       </c>
       <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N15" s="3">
         <v>1000</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>1000</v>
@@ -1117,14 +1139,17 @@
       <c r="Q15" s="3">
         <v>1000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>1000</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4815000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3580000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4311000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3772000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4761000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3808000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3619000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3977000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3657000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3489000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3072000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3935000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2943000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2976000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2966000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2950000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>546000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-63000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>114000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>574000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-121000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>506000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>354000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>565000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>621000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>539000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>547000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-309000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>589000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>617000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>556000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>389000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,61 +1300,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-15000</v>
       </c>
       <c r="I20" s="3">
         <v>-15000</v>
       </c>
       <c r="J20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-10000</v>
       </c>
       <c r="O20" s="3">
         <v>-10000</v>
       </c>
       <c r="P20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,197 +1380,209 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>549000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>604000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>523000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>533000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-319000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>579000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>603000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>548000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>381000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E22" s="3">
         <v>84000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>65000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>74000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>115000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>70000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>71000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>78000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>72000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>97000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>69000</v>
       </c>
       <c r="O22" s="3">
         <v>69000</v>
       </c>
       <c r="P22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>70000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>72000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>185000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-161000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>481000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-250000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>421000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>268000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>467000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>532000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>451000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>435000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-388000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>510000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>533000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>475000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>196000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-67000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-18000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>66000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-89000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>58000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>106000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>81000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>92000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>122000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-94000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>52000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>415000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-161000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>363000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>252000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>361000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>522000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>385000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>354000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-485000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>418000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>411000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>435000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>193000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-94000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>52000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>415000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-161000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>363000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>252000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>361000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>522000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>385000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>354000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-485000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>418000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>411000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>435000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>193000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1756,12 +1816,12 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>17000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1769,37 +1829,40 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>38000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-32000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>13000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1300000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="3">
         <v>14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>15000</v>
       </c>
       <c r="I32" s="3">
         <v>15000</v>
       </c>
       <c r="J32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>10000</v>
       </c>
       <c r="O32" s="3">
         <v>10000</v>
       </c>
       <c r="P32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-94000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>52000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>432000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-161000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>363000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>252000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>399000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>490000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>385000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>367000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>815000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>418000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>411000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>435000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>193000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-94000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>52000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>432000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-161000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>363000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>252000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>399000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>490000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>385000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>367000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>815000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>418000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>411000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>435000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>193000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2595000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4201000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6202000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2563000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2939000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3314000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1593000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2345000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1460000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1775000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2257000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1628000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1965000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1978000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1923000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2722000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,61 +2411,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E43" s="3">
         <v>490000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>562000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>465000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>440000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>553000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>607000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>570000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>592000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>574000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>480000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>396000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>370000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>365000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>465000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>430000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,61 +2635,67 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>146279000</v>
+      </c>
+      <c r="E47" s="3">
         <v>141960000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>130835000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>131786000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>130319000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>124870000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>120764000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>114097000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111968000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111412000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>109209000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>112163000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>110743000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>109562000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>107618000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>105770000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2610,14 +2717,14 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
-        <v>12000</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3">
         <v>12000</v>
       </c>
       <c r="L48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M48" s="3">
         <v>11000</v>
@@ -2629,19 +2736,22 @@
         <v>11000</v>
       </c>
       <c r="P48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>23000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>24000</v>
       </c>
       <c r="R48" s="3">
         <v>24000</v>
       </c>
       <c r="S48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="T48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2664,22 +2774,22 @@
         <v>1778000</v>
       </c>
       <c r="J49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1782000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1757000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1368000</v>
       </c>
       <c r="N49" s="3">
         <v>1368000</v>
       </c>
       <c r="O49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="P49" s="3">
         <v>2273000</v>
@@ -2693,8 +2803,11 @@
       <c r="S49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,8 +2915,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2852,8 +2971,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>347804000</v>
+      </c>
+      <c r="E54" s="3">
         <v>339659000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>318649000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>334761000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>325278000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>322259000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>314299000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>298147000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>303850000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>298832000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>279237000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>281763000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>276785000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>271651000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>267468000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>261627000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3129,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3183,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3065,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300000</v>
@@ -3076,20 +3209,20 @@
       <c r="I58" s="3">
         <v>300000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="J58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>250000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>450000</v>
       </c>
       <c r="O58" s="3">
         <v>450000</v>
@@ -3098,69 +3231,75 @@
         <v>450000</v>
       </c>
       <c r="Q58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="R58" s="3">
         <v>200000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>304311000</v>
+      </c>
+      <c r="E59" s="3">
         <v>295071000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>277502000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>295223000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>284167000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>283850000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>278638000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>265262000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>277551000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>273082000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>252419000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>253550000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>247302000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>242933000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>240097000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>234761000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,61 +3351,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6714000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6736000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6748000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6067000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6070000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5621000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5572000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5839000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5804000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5826000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5648000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4894000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4900000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4901000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5133000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5345000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3318,8 +3463,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>326255000</v>
+      </c>
+      <c r="E66" s="3">
         <v>318928000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>302074000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>315072000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>305279000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>303804000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>297882000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>283797000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>288780000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>283655000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>263252000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>264441000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>260471000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>255655000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>252495000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>247149000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8647000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8327000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8500000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8854000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8559000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8878000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8679000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8551000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8615000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8302000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8052000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8399000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7738000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7511000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7287000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7043000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21549000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20731000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16575000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19689000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19999000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18455000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16417000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14350000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15070000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15177000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15985000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17322000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16314000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15996000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14973000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14478000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>398000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-94000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>52000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>432000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-161000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>363000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>252000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>399000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>490000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>385000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>367000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>815000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>418000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>411000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>435000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>193000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,8 +4410,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4266,8 +4464,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-630000</v>
+      </c>
+      <c r="E89" s="3">
         <v>516000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>455000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-295000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>909000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>402000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>492000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>140000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>179000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>407000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>93000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>595000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,8 +4824,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4658,8 +4878,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3081000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>742000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1074000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-595000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-780000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-505000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4847,52 +5080,55 @@
         <v>-77000</v>
       </c>
       <c r="E96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-79000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-76000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-76000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-72000</v>
       </c>
       <c r="K96" s="3">
         <v>-72000</v>
       </c>
       <c r="L96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-73000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-72000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-64000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-66000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-58000</v>
       </c>
       <c r="S96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,61 +5292,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2105000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1589000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2442000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2667000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2146000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1878000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1712000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1551000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1150000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>804000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1084000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>888000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>360000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>467000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>591000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>737000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5156,57 +5404,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1606000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3639000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-376000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-375000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1721000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-752000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>885000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-315000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-482000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>629000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-337000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-799000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-722000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4136000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5361000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3517000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4425000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4346000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4640000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4314000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3973000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4542000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4278000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4028000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3619000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3626000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3532000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3593000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3522000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3339000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,13 +1052,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1051,49 +1070,52 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2000</v>
       </c>
       <c r="L14" s="3">
         <v>2000</v>
       </c>
       <c r="M14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>906000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>4000</v>
       </c>
       <c r="R14" s="3">
         <v>4000</v>
       </c>
       <c r="S14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T14" s="3">
         <v>32000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,35 +1128,35 @@
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
-        <v>15000</v>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>15000</v>
       </c>
       <c r="I15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J15" s="3">
         <v>19000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>2000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1000</v>
       </c>
       <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="O15" s="3">
         <v>1000</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q15" s="3">
         <v>1000</v>
@@ -1142,14 +1164,17 @@
       <c r="R15" s="3">
         <v>1000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
+      <c r="S15" s="3">
+        <v>1000</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3958000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4815000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3580000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4311000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3772000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4761000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3808000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3619000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3977000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3657000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3489000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3072000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3935000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2943000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2976000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2966000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2950000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E18" s="3">
         <v>546000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>114000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>574000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-121000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>506000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>354000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>565000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>621000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>539000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>547000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-309000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>589000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>617000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>556000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>389000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,64 +1333,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-14000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-15000</v>
       </c>
       <c r="J20" s="3">
         <v>-15000</v>
       </c>
       <c r="K20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-10000</v>
       </c>
       <c r="P20" s="3">
         <v>-10000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8000</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,38 +1419,41 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>549000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>604000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>523000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>533000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-319000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>579000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>603000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>548000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>381000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1422,167 +1461,176 @@
         <v>66000</v>
       </c>
       <c r="E22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F22" s="3">
         <v>84000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>65000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>74000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>115000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>70000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>71000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>78000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>71000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>72000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>97000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>69000</v>
       </c>
       <c r="P22" s="3">
         <v>69000</v>
       </c>
       <c r="Q22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="R22" s="3">
         <v>70000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>72000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>185000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E23" s="3">
         <v>460000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-161000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>481000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-250000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>421000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>268000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>467000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>532000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>451000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>435000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-388000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>510000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>533000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>475000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>196000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E24" s="3">
         <v>62000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-67000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>66000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-89000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>58000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>106000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>81000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>92000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>122000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E26" s="3">
         <v>398000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-94000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>415000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-161000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>363000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>252000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>361000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>522000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>385000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>354000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-485000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>418000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>411000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>435000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>193000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E27" s="3">
         <v>398000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-94000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>52000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>415000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-161000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>363000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>252000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>361000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>522000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>385000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>354000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-485000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>418000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>411000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>435000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>193000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,13 +1862,16 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>37000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1819,12 +1879,12 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>17000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -1832,37 +1892,40 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>38000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-32000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>13000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1300000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E32" s="3">
         <v>20000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>14000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>14000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>15000</v>
       </c>
       <c r="J32" s="3">
         <v>15000</v>
       </c>
       <c r="K32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>10000</v>
       </c>
       <c r="P32" s="3">
         <v>10000</v>
       </c>
       <c r="Q32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8000</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E33" s="3">
         <v>398000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-94000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>432000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-161000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>363000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>252000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>399000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>490000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>385000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>367000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>815000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>418000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>411000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>435000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>193000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E35" s="3">
         <v>398000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-94000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>432000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-161000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>363000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>252000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>399000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>490000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>385000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>367000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>815000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>418000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>411000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>435000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>193000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2595000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4201000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6202000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2563000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2939000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3314000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1593000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2345000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1460000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1775000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2257000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1628000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1965000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1978000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1923000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2722000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,64 +2503,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>486000</v>
+      </c>
+      <c r="E43" s="3">
         <v>498000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>490000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>562000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>465000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>440000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>553000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>607000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>570000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>592000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>574000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>480000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>396000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>370000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>365000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>465000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>430000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,96 +2739,102 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>150847000</v>
+      </c>
+      <c r="E47" s="3">
         <v>146279000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>141960000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>130835000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>131786000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>130319000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>124870000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>120764000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>114097000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111968000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>111412000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>109209000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>112163000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>110743000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>109562000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>107618000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>105770000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
-        <v>12000</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L48" s="3">
         <v>12000</v>
       </c>
       <c r="M48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N48" s="3">
         <v>11000</v>
@@ -2739,19 +2846,22 @@
         <v>11000</v>
       </c>
       <c r="Q48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R48" s="3">
         <v>23000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>24000</v>
       </c>
       <c r="S48" s="3">
         <v>24000</v>
       </c>
       <c r="T48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="U48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2777,22 +2887,22 @@
         <v>1778000</v>
       </c>
       <c r="K49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1782000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1757000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1368000</v>
       </c>
       <c r="O49" s="3">
         <v>1368000</v>
       </c>
       <c r="P49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="Q49" s="3">
         <v>2273000</v>
@@ -2806,8 +2916,11 @@
       <c r="T49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,8 +3034,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2974,8 +3093,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>365948000</v>
+      </c>
+      <c r="E54" s="3">
         <v>347804000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>339659000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>318649000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>334761000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>325278000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>322259000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>314299000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>298147000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>303850000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>298832000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>279237000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>281763000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>276785000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>271651000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>267468000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>261627000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,8 +3259,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,8 +3316,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3201,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>300000</v>
@@ -3212,20 +3345,20 @@
       <c r="J58" s="3">
         <v>300000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>250000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>450000</v>
       </c>
       <c r="P58" s="3">
         <v>450000</v>
@@ -3234,72 +3367,78 @@
         <v>450000</v>
       </c>
       <c r="R58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="S58" s="3">
         <v>200000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>322744000</v>
+      </c>
+      <c r="E59" s="3">
         <v>304311000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>295071000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>277502000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>295223000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>284167000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>283850000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>278638000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>265262000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>277551000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>273082000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>252419000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>253550000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>247302000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>242933000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>240097000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>234761000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,64 +3493,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6682000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6714000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6736000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6748000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6067000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6070000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5621000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5572000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5839000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5804000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5826000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5648000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4894000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4900000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4901000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5133000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5345000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3466,8 +3611,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>343249000</v>
+      </c>
+      <c r="E66" s="3">
         <v>326255000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>318928000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>302074000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>315072000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>305279000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>303804000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>297882000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>283797000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>288780000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>283655000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>263252000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>264441000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>260471000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>255655000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>252495000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>247149000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8686000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8647000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8327000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8500000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8854000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8559000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8878000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8679000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8551000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8615000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8302000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8052000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8399000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7738000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7511000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7287000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7043000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22699000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21549000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20731000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16575000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19689000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19999000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18455000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16417000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14350000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15070000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15177000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15985000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17322000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16314000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15996000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14973000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14478000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E81" s="3">
         <v>398000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-94000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>432000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-161000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>363000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>252000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>399000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>490000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>385000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>367000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>815000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>418000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>411000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>435000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>193000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,8 +4608,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4467,8 +4665,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-630000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>516000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>455000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>171000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-295000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>909000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>402000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>492000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>140000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>179000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>407000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>93000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>595000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,8 +5044,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4881,8 +5101,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3036000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>742000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1074000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-595000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-780000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-505000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-77000</v>
+        <v>-78000</v>
       </c>
       <c r="E96" s="3">
         <v>-77000</v>
       </c>
       <c r="F96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-79000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-76000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-76000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-72000</v>
       </c>
       <c r="L96" s="3">
         <v>-72000</v>
       </c>
       <c r="M96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-73000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-72000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-64000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-67000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-58000</v>
       </c>
       <c r="T96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,64 +5537,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1956000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2105000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1589000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2442000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2667000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2146000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1878000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1712000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1551000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1150000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>804000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1084000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>888000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>360000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>467000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>591000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>737000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5407,60 +5655,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-887000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3639000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-376000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-375000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1721000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-752000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>885000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-315000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-482000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>629000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-337000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-799000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-722000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4534000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4136000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5361000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3517000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4425000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4346000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4640000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4314000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3973000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4542000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4278000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4028000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3619000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3626000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3532000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3593000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3522000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3339000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,16 +1071,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1073,49 +1092,52 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>2000</v>
       </c>
       <c r="M14" s="3">
         <v>2000</v>
       </c>
       <c r="N14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>906000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>4000</v>
       </c>
       <c r="S14" s="3">
         <v>4000</v>
       </c>
       <c r="T14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U14" s="3">
         <v>32000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,35 +1153,35 @@
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
-        <v>15000</v>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
         <v>15000</v>
       </c>
       <c r="J15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K15" s="3">
         <v>19000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>2000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1000</v>
       </c>
       <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="P15" s="3">
         <v>1000</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>1000</v>
@@ -1167,14 +1189,17 @@
       <c r="S15" s="3">
         <v>1000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
+      <c r="T15" s="3">
+        <v>1000</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4194000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3958000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4815000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3580000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4311000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3772000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4761000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3808000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3619000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3977000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3657000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3489000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3072000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3935000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2943000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2976000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2966000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2950000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E18" s="3">
         <v>178000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>546000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-63000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>114000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>574000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-121000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>506000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>354000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>565000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>621000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>539000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>547000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-309000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>589000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>617000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>556000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>389000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,67 +1366,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-15000</v>
       </c>
       <c r="K20" s="3">
         <v>-15000</v>
       </c>
       <c r="L20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-10000</v>
       </c>
       <c r="Q20" s="3">
         <v>-10000</v>
       </c>
       <c r="R20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8000</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,215 +1458,227 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>549000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>604000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>523000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>533000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-319000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>579000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>603000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>548000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>381000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="E22" s="3">
         <v>66000</v>
       </c>
       <c r="F22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="G22" s="3">
         <v>84000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>65000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>74000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>115000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>70000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>78000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>71000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>72000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>97000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>69000</v>
       </c>
       <c r="Q22" s="3">
         <v>69000</v>
       </c>
       <c r="R22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="S22" s="3">
         <v>70000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>72000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>185000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E23" s="3">
         <v>89000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>460000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-161000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>481000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-250000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>421000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>268000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>467000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>532000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>451000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>435000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-388000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>510000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>533000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>475000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>196000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>62000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-67000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>66000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-89000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>58000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>106000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>66000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>81000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>97000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>92000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>122000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>40000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E26" s="3">
         <v>106000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>398000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-94000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>52000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>415000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-161000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>363000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>252000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>361000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>522000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>385000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>354000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-485000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>418000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>411000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>435000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>193000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E27" s="3">
         <v>106000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>398000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-94000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>52000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>415000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-161000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>363000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>252000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>361000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>522000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>385000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>354000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-485000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>418000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>411000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>435000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>193000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,29 +1922,32 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>37000</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>17000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -1895,37 +1955,40 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>38000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-32000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>13000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1300000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>23000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>15000</v>
       </c>
       <c r="K32" s="3">
         <v>15000</v>
       </c>
       <c r="L32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>10000</v>
       </c>
       <c r="Q32" s="3">
         <v>10000</v>
       </c>
       <c r="R32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S32" s="3">
         <v>14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8000</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E33" s="3">
         <v>143000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>398000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-94000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>52000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>432000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-161000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>363000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>252000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>399000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>490000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>385000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>367000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>815000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>418000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>411000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>435000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>193000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E35" s="3">
         <v>143000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>398000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-94000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>52000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>432000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-161000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>363000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>252000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>399000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>490000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>385000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>367000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>815000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>418000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>411000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>435000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>193000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1708000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2595000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4201000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6202000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2563000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2939000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3314000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1593000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2345000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1460000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1775000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2257000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1628000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1965000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1978000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1923000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2722000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,67 +2595,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>653000</v>
+      </c>
+      <c r="E43" s="3">
         <v>486000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>498000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>490000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>562000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>465000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>440000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>553000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>607000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>570000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>592000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>574000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>480000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>396000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>370000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>365000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>465000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>430000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,67 +2843,73 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>145106000</v>
+      </c>
+      <c r="E47" s="3">
         <v>150847000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>146279000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>141960000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>130835000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>131786000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>130319000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>124870000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>120764000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>114097000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>111968000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111412000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>109209000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>112163000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>110743000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>109562000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>107618000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>105770000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2827,17 +2934,17 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
-        <v>12000</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M48" s="3">
         <v>12000</v>
       </c>
       <c r="N48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O48" s="3">
         <v>11000</v>
@@ -2849,19 +2956,22 @@
         <v>11000</v>
       </c>
       <c r="R48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="S48" s="3">
         <v>23000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>24000</v>
       </c>
       <c r="T48" s="3">
         <v>24000</v>
       </c>
       <c r="U48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="V48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2890,22 +3000,22 @@
         <v>1778000</v>
       </c>
       <c r="L49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="M49" s="3">
         <v>1782000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1757000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1368000</v>
       </c>
       <c r="P49" s="3">
         <v>1368000</v>
       </c>
       <c r="Q49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="R49" s="3">
         <v>2273000</v>
@@ -2919,8 +3029,11 @@
       <c r="U49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,8 +3153,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3096,8 +3215,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>366760000</v>
+      </c>
+      <c r="E54" s="3">
         <v>365948000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>347804000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>339659000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>318649000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>334761000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>325278000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>322259000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>314299000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>298147000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>303850000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>298832000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>279237000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>281763000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>276785000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>271651000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>267468000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>261627000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3389,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3319,13 +3449,16 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3337,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>300000</v>
@@ -3348,20 +3481,20 @@
       <c r="K58" s="3">
         <v>300000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>250000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>450000</v>
       </c>
       <c r="Q58" s="3">
         <v>450000</v>
@@ -3370,75 +3503,81 @@
         <v>450000</v>
       </c>
       <c r="S58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="T58" s="3">
         <v>200000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>327749000</v>
+      </c>
+      <c r="E59" s="3">
         <v>322744000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>304311000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>295071000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>277502000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>295223000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>284167000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>283850000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>278638000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>265262000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>277551000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>273082000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>252419000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>253550000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>247302000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>242933000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>240097000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>234761000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,67 +3635,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6294000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6682000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6714000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6736000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6748000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6067000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6070000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5621000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5572000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5839000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5804000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5826000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5648000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4894000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4900000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4901000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5133000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5345000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3614,8 +3759,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>347167000</v>
+      </c>
+      <c r="E66" s="3">
         <v>343249000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>326255000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>318928000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>302074000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>315072000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>305279000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>303804000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>297882000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>283797000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>288780000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>283655000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>263252000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>264441000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>260471000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>255655000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>252495000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>247149000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8775000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8686000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8647000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8327000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8500000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8854000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8559000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8878000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8679000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8551000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8615000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8302000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8052000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8399000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7738000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7511000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7287000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7043000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19593000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22699000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21549000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20731000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16575000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19689000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19999000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18455000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16417000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14350000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15070000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15177000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15985000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17322000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16314000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15996000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14973000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14478000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E81" s="3">
         <v>143000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>398000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-94000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>52000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>432000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-161000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>363000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>252000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>399000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>490000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>385000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>367000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>815000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>418000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>411000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>435000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>193000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,8 +4806,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4668,8 +4866,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-642000</v>
+      </c>
+      <c r="E89" s="3">
         <v>193000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-630000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>516000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>455000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>171000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-295000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>909000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>402000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>492000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>140000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>179000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>407000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>93000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>595000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,8 +5264,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5104,8 +5324,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-712000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>742000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1074000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-595000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-780000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-505000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-77000</v>
       </c>
       <c r="F96" s="3">
         <v>-77000</v>
       </c>
       <c r="G96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-79000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-76000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-74000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-76000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-72000</v>
       </c>
       <c r="M96" s="3">
         <v>-72000</v>
       </c>
       <c r="N96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-73000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-72000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-66000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-67000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-58000</v>
       </c>
       <c r="U96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5782,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1956000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2105000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1589000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2442000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2667000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2146000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1878000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1712000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1551000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1150000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>804000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1084000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>888000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>360000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>467000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>591000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>737000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5658,63 +5906,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-887000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3639000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-376000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-375000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1721000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-752000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>885000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-315000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-482000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>629000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-337000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-799000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-722000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4851000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4534000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4136000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5361000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3517000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4425000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4346000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4640000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4314000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3973000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4542000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4278000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4028000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3619000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3626000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3532000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3593000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3522000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3339000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1085,8 +1104,8 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1095,49 +1114,52 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>2000</v>
       </c>
       <c r="N14" s="3">
         <v>2000</v>
       </c>
       <c r="O14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>906000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>4000</v>
       </c>
       <c r="T14" s="3">
         <v>4000</v>
       </c>
       <c r="U14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V14" s="3">
         <v>32000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,35 +1178,35 @@
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>15000</v>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <v>15000</v>
       </c>
       <c r="K15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L15" s="3">
         <v>19000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>2000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1000</v>
       </c>
       <c r="P15" s="3">
         <v>1000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="3">
         <v>1000</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S15" s="3">
         <v>1000</v>
@@ -1192,14 +1214,17 @@
       <c r="T15" s="3">
         <v>1000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
+      <c r="U15" s="3">
+        <v>1000</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3993000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4194000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3958000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4815000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3580000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4311000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3772000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4761000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3808000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3619000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3977000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3657000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3489000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3072000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3935000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2943000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2976000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2966000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2950000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E18" s="3">
         <v>340000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>178000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>546000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-63000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>114000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>574000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-121000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>506000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>354000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>565000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>621000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>539000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>547000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-309000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>589000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>617000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>556000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>389000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,70 +1399,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-23000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-15000</v>
       </c>
       <c r="L20" s="3">
         <v>-15000</v>
       </c>
       <c r="M20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-10000</v>
       </c>
       <c r="R20" s="3">
         <v>-10000</v>
       </c>
       <c r="S20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8000</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1461,38 +1497,41 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>549000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>604000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>523000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>533000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-319000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>579000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>603000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>548000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>381000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1500,185 +1539,194 @@
         <v>65000</v>
       </c>
       <c r="E22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="F22" s="3">
         <v>66000</v>
       </c>
       <c r="G22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="H22" s="3">
         <v>84000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>65000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>74000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>115000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>71000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>78000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>71000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>72000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>97000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>69000</v>
       </c>
       <c r="R22" s="3">
         <v>69000</v>
       </c>
       <c r="S22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="T22" s="3">
         <v>70000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>72000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>185000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>772000</v>
+      </c>
+      <c r="E23" s="3">
         <v>262000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>89000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>460000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-161000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>481000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-250000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>421000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>268000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>467000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>532000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>451000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>435000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-388000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>510000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>533000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>475000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>196000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E24" s="3">
         <v>37000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>62000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-67000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>66000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-89000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>106000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>66000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>81000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>97000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>92000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>122000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>40000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E26" s="3">
         <v>225000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>106000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>398000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-94000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>52000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>415000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-161000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>363000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>252000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>361000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>522000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>385000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>354000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-485000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>418000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>411000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>435000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>193000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E27" s="3">
         <v>225000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>106000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>398000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-94000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>52000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>415000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-161000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>363000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>252000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>361000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>522000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>385000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>354000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-485000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>418000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>411000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>435000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>193000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,32 +1982,35 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>37000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>17000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1958,37 +2018,40 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>38000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-32000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>13000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1300000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E32" s="3">
         <v>13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>23000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>15000</v>
       </c>
       <c r="L32" s="3">
         <v>15000</v>
       </c>
       <c r="M32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>10000</v>
       </c>
       <c r="R32" s="3">
         <v>10000</v>
       </c>
       <c r="S32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T32" s="3">
         <v>14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8000</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E33" s="3">
         <v>225000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>143000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>398000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-94000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>432000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-161000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>363000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>252000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>399000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>490000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>385000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>367000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>815000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>418000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>411000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>435000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>193000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E35" s="3">
         <v>225000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>143000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>398000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-94000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>432000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-161000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>363000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>252000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>399000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>490000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>385000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>367000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>815000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>418000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>411000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>435000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>193000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1350000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1708000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2595000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4201000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6202000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2563000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2939000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3314000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1593000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2345000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1460000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1775000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2257000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1628000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1965000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1978000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1923000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2722000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,70 +2687,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E43" s="3">
         <v>653000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>486000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>498000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>490000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>562000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>465000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>440000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>553000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>607000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>570000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>592000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>574000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>480000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>396000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>370000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>365000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>465000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>430000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,70 +2947,76 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>150567000</v>
+      </c>
+      <c r="E47" s="3">
         <v>145106000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>150847000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>146279000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>141960000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>130835000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>131786000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>130319000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>124870000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>120764000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>114097000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111968000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111412000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>109209000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>112163000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>110743000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>109562000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>107618000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>105770000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2937,17 +3044,17 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
-        <v>12000</v>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N48" s="3">
         <v>12000</v>
       </c>
       <c r="O48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P48" s="3">
         <v>11000</v>
@@ -2959,19 +3066,22 @@
         <v>11000</v>
       </c>
       <c r="S48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="T48" s="3">
         <v>23000</v>
-      </c>
-      <c r="T48" s="3">
-        <v>24000</v>
       </c>
       <c r="U48" s="3">
         <v>24000</v>
       </c>
       <c r="V48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="W48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3003,22 +3113,22 @@
         <v>1778000</v>
       </c>
       <c r="M49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="N49" s="3">
         <v>1782000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1757000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1368000</v>
       </c>
       <c r="Q49" s="3">
         <v>1368000</v>
       </c>
       <c r="R49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="S49" s="3">
         <v>2273000</v>
@@ -3032,8 +3142,11 @@
       <c r="V49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,8 +3272,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3218,8 +3337,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>380148000</v>
+      </c>
+      <c r="E54" s="3">
         <v>366760000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>365948000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>347804000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>339659000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>318649000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>334761000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>325278000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>322259000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>314299000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>298147000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>303850000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>298832000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>279237000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>281763000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>276785000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>271651000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>267468000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>261627000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,8 +3519,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3452,8 +3582,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3461,7 +3594,7 @@
         <v>300000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3473,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>300000</v>
@@ -3484,20 +3617,20 @@
       <c r="L58" s="3">
         <v>300000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>250000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>450000</v>
       </c>
       <c r="R58" s="3">
         <v>450000</v>
@@ -3506,78 +3639,84 @@
         <v>450000</v>
       </c>
       <c r="T58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="U58" s="3">
         <v>200000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>338377000</v>
+      </c>
+      <c r="E59" s="3">
         <v>327749000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>322744000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>304311000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>295071000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>277502000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>295223000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>284167000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>283850000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>278638000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>265262000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>277551000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>273082000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>252419000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>253550000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>247302000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>242933000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>240097000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>234761000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,70 +3777,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6334000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6294000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6682000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6714000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6736000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6748000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6067000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6070000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5621000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5572000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5839000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5804000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5826000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5648000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4894000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4900000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4901000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5133000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5345000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3762,8 +3907,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>358403000</v>
+      </c>
+      <c r="E66" s="3">
         <v>347167000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>343249000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>326255000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>318928000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>302074000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>315072000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>305279000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>303804000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>297882000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>283797000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>288780000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>283655000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>263252000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>264441000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>260471000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>255655000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>252495000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>247149000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9245000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8775000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8686000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8647000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8327000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8500000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8854000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8559000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8878000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8679000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8551000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8615000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8302000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8052000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8399000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7738000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7511000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7287000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7043000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21745000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19593000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22699000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21549000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20731000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16575000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19689000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19999000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18455000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16417000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14350000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15070000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15177000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15985000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17322000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16314000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15996000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14973000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14478000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E81" s="3">
         <v>225000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>143000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>398000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-94000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>432000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-161000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>363000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>252000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>399000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>490000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>385000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>367000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>815000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>418000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>411000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>435000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>193000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,8 +5004,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4869,8 +5067,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-642000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>193000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-630000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>516000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>455000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>171000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-295000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>909000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>402000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>492000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>140000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>179000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>407000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>93000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>109000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>595000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,8 +5484,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5327,8 +5547,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-806000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-712000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>742000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1074000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-595000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-780000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-505000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-80000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-77000</v>
       </c>
       <c r="G96" s="3">
         <v>-77000</v>
       </c>
       <c r="H96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-79000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-76000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-74000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-72000</v>
       </c>
       <c r="N96" s="3">
         <v>-72000</v>
       </c>
       <c r="O96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-73000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-64000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-66000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-67000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-58000</v>
       </c>
       <c r="V96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,70 +6027,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="E100" s="3">
         <v>996000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1956000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2105000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1589000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2442000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2667000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2146000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1878000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1712000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1551000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1150000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>804000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>888000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>360000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>467000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>591000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>737000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5909,66 +6157,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-358000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-887000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3639000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-376000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-375000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1721000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-752000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>885000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-315000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-482000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>629000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-337000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>55000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-799000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-722000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5241000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4851000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4534000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4136000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5361000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3517000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4425000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4346000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4640000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4314000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3973000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4542000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4278000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4028000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3619000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3626000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3532000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3593000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3522000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3339000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1126,8 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1117,49 +1136,52 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2000</v>
       </c>
       <c r="O14" s="3">
         <v>2000</v>
       </c>
       <c r="P14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>906000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>4000</v>
       </c>
       <c r="U14" s="3">
         <v>4000</v>
       </c>
       <c r="V14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W14" s="3">
         <v>32000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,35 +1203,35 @@
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
-        <v>15000</v>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>15000</v>
       </c>
       <c r="L15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M15" s="3">
         <v>19000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>18000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>2000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1000</v>
       </c>
       <c r="Q15" s="3">
         <v>1000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="R15" s="3">
         <v>1000</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T15" s="3">
         <v>1000</v>
@@ -1217,14 +1239,17 @@
       <c r="U15" s="3">
         <v>1000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
+      <c r="V15" s="3">
+        <v>1000</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4778000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3993000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4194000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3958000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4815000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3580000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4311000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3772000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4761000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3808000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3619000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3977000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3657000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3489000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3072000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3935000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2943000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2976000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2966000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2950000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E18" s="3">
         <v>858000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>340000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>178000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>546000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-63000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>114000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>574000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-121000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>506000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>354000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>565000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>621000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>539000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>547000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-309000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>589000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>617000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>556000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>389000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,73 +1432,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-21000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-23000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-15000</v>
       </c>
       <c r="M20" s="3">
         <v>-15000</v>
       </c>
       <c r="N20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-10000</v>
       </c>
       <c r="S20" s="3">
         <v>-10000</v>
       </c>
       <c r="T20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8000</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1500,233 +1536,245 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>549000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>604000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>523000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>533000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-319000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>579000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>603000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>548000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>381000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65000</v>
+        <v>73000</v>
       </c>
       <c r="E22" s="3">
         <v>65000</v>
       </c>
       <c r="F22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="G22" s="3">
         <v>66000</v>
       </c>
       <c r="H22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I22" s="3">
         <v>84000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>65000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>74000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>115000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>71000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>78000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>71000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>72000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>97000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>69000</v>
       </c>
       <c r="S22" s="3">
         <v>69000</v>
       </c>
       <c r="T22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="U22" s="3">
         <v>70000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>72000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>185000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E23" s="3">
         <v>772000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>262000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>89000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>460000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-161000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>481000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-250000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>421000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>268000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>467000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>532000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>451000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>435000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-388000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>510000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>533000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>475000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>196000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="3">
         <v>130000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>37000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-17000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>62000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-67000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>66000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-89000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>16000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>106000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>81000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>97000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>92000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>122000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E26" s="3">
         <v>642000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>225000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>106000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>398000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-94000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>52000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>415000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-161000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>363000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>252000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>361000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>522000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>385000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>354000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-485000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>418000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>411000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>435000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>193000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E27" s="3">
         <v>642000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>225000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>106000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>398000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-94000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>52000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>415000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-161000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>363000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>252000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>361000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>522000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>385000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>354000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-485000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>418000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>411000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>435000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>193000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,24 +2056,24 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>37000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>17000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2021,37 +2081,40 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>38000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-32000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>13000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1300000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E32" s="3">
         <v>21000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>23000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>15000</v>
       </c>
       <c r="M32" s="3">
         <v>15000</v>
       </c>
       <c r="N32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>10000</v>
       </c>
       <c r="S32" s="3">
         <v>10000</v>
       </c>
       <c r="T32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="U32" s="3">
         <v>14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8000</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E33" s="3">
         <v>642000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>225000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>143000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>398000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-94000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>52000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>432000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-161000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>363000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>252000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>399000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>490000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>385000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>367000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>815000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>418000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>411000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>435000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>193000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E35" s="3">
         <v>642000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>225000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>143000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>398000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-94000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>52000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>432000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-161000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>363000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>252000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>399000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>490000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>385000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>367000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>815000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>418000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>411000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>435000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>193000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2614000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2389000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1350000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1708000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2595000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4201000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6202000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2563000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2939000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3314000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1593000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2345000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1460000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1775000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2257000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1628000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1965000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1978000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1923000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2722000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,73 +2779,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E43" s="3">
         <v>583000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>653000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>486000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>498000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>490000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>562000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>465000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>440000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>553000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>607000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>570000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>592000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>574000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>480000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>396000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>370000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>365000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>465000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>430000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,73 +3051,79 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>150697000</v>
+      </c>
+      <c r="E47" s="3">
         <v>150567000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>145106000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>150847000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>146279000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>141960000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>130835000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>131786000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>130319000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>124870000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>120764000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>114097000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111968000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>111412000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>109209000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>112163000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>110743000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>109562000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>107618000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>105770000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3047,17 +3154,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
-        <v>12000</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O48" s="3">
         <v>12000</v>
       </c>
       <c r="P48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q48" s="3">
         <v>11000</v>
@@ -3069,19 +3176,22 @@
         <v>11000</v>
       </c>
       <c r="T48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="U48" s="3">
         <v>23000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>24000</v>
       </c>
       <c r="V48" s="3">
         <v>24000</v>
       </c>
       <c r="W48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="X48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3116,22 +3226,22 @@
         <v>1778000</v>
       </c>
       <c r="N49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="O49" s="3">
         <v>1782000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1757000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1368000</v>
       </c>
       <c r="R49" s="3">
         <v>1368000</v>
       </c>
       <c r="S49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="T49" s="3">
         <v>2273000</v>
@@ -3145,8 +3255,11 @@
       <c r="W49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,8 +3391,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3340,8 +3459,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>377052000</v>
+      </c>
+      <c r="E54" s="3">
         <v>380148000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>366760000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>365948000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>347804000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>339659000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>318649000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>334761000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>325278000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>322259000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>314299000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>298147000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>303850000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>298832000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>279237000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>281763000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>276785000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>271651000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>267468000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>261627000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,8 +3649,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3585,8 +3715,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3597,7 +3730,7 @@
         <v>300000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3609,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>300000</v>
@@ -3620,20 +3753,20 @@
       <c r="M58" s="3">
         <v>300000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>250000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>450000</v>
       </c>
       <c r="S58" s="3">
         <v>450000</v>
@@ -3642,81 +3775,87 @@
         <v>450000</v>
       </c>
       <c r="U58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="V58" s="3">
         <v>200000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>336366000</v>
+      </c>
+      <c r="E59" s="3">
         <v>338377000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>327749000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>322744000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>304311000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>295071000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>277502000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>295223000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>284167000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>283850000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>278638000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>265262000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>277551000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>273082000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>252419000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>253550000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>247302000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>242933000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>240097000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>234761000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,73 +3919,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6323000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6334000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6294000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6682000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6714000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6736000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6748000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6067000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6070000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5621000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5572000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5839000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5804000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5826000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5648000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4894000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4900000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4901000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5133000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5345000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3910,8 +4055,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>355882000</v>
+      </c>
+      <c r="E66" s="3">
         <v>358403000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>347167000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>343249000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>326255000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>318928000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>302074000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>315072000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>305279000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>303804000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>297882000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>283797000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>288780000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>283655000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>263252000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>264441000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>260471000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>255655000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>252495000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>247149000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9365000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9245000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8775000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8686000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8647000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8327000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8500000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8854000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8559000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8878000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8679000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8551000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8615000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8302000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8052000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8399000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7738000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7511000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7287000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7043000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21170000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21745000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19593000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22699000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21549000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20731000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16575000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19689000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19999000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18455000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16417000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14350000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15070000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15177000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15985000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17322000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16314000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15996000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14973000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14478000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E81" s="3">
         <v>642000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>225000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>143000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>398000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-94000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>52000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>432000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-161000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>363000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>252000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>399000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>490000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>385000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>367000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>815000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>418000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>411000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>435000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>193000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,8 +5202,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5070,8 +5268,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>339000</v>
+      </c>
+      <c r="E89" s="3">
         <v>411000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-642000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>193000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-630000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>516000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>455000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>171000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-295000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>909000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>402000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>492000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>140000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>179000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>407000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>93000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>109000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>595000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,8 +5704,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5550,8 +5770,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-918000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-806000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-712000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>742000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1074000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-595000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-780000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-505000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-81000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-80000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-77000</v>
       </c>
       <c r="H96" s="3">
         <v>-77000</v>
       </c>
       <c r="I96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-79000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-76000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-74000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-76000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-72000</v>
       </c>
       <c r="O96" s="3">
         <v>-72000</v>
       </c>
       <c r="P96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-72000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-64000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-66000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-67000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-58000</v>
       </c>
       <c r="W96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,73 +6272,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>804000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1434000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>996000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1956000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2105000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1589000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2442000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2667000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2146000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1878000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1712000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1551000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1150000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>804000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1084000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>888000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>360000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>467000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>591000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>737000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6160,69 +6408,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1039000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-358000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-887000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3639000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-376000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-375000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1721000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-752000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>885000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-315000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-482000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>629000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-337000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>55000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-799000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-722000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4603000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5241000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4851000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4534000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4136000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5361000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3517000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4425000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4346000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4640000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4314000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3973000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4542000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4278000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4028000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3619000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3626000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3532000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3593000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3522000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3339000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,16 +1128,19 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -1129,8 +1148,8 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1139,49 +1158,52 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>2000</v>
       </c>
       <c r="P14" s="3">
         <v>2000</v>
       </c>
       <c r="Q14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>906000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>4000</v>
       </c>
       <c r="V14" s="3">
         <v>4000</v>
       </c>
       <c r="W14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X14" s="3">
         <v>32000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,35 +1228,35 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>15000</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>15000</v>
       </c>
       <c r="M15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N15" s="3">
         <v>19000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>18000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1000</v>
       </c>
       <c r="R15" s="3">
         <v>1000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="S15" s="3">
         <v>1000</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U15" s="3">
         <v>1000</v>
@@ -1242,14 +1264,17 @@
       <c r="V15" s="3">
         <v>1000</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
+      <c r="W15" s="3">
+        <v>1000</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4778000</v>
+        <v>4271000</v>
       </c>
       <c r="E17" s="3">
+        <v>4784000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3993000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4194000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3958000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4815000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3580000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4311000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3772000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4761000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3808000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3619000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3977000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3657000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3489000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3072000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3935000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2943000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2976000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2966000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2950000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>463000</v>
+        <v>332000</v>
       </c>
       <c r="E18" s="3">
+        <v>457000</v>
+      </c>
+      <c r="F18" s="3">
         <v>858000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>340000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>178000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>546000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-63000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>114000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>574000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-121000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>506000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>354000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>565000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>621000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>539000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>547000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-309000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>589000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>617000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>556000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>389000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,76 +1465,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-15000</v>
       </c>
       <c r="N20" s="3">
         <v>-15000</v>
       </c>
       <c r="O20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-10000</v>
       </c>
       <c r="T20" s="3">
         <v>-10000</v>
       </c>
       <c r="U20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-9000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-8000</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1539,242 +1575,254 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>549000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>604000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>523000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>533000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-319000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>579000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>603000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>548000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>381000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>73000</v>
+        <v>66000</v>
       </c>
       <c r="E22" s="3">
-        <v>65000</v>
+        <v>67000</v>
       </c>
       <c r="F22" s="3">
         <v>65000</v>
       </c>
       <c r="G22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="H22" s="3">
         <v>66000</v>
       </c>
       <c r="I22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="J22" s="3">
         <v>84000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>65000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>74000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>115000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>71000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>78000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>71000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>72000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>97000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>69000</v>
       </c>
       <c r="T22" s="3">
         <v>69000</v>
       </c>
       <c r="U22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="V22" s="3">
         <v>70000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>72000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>185000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E23" s="3">
         <v>368000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>772000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>262000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>89000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>460000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-161000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>481000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-250000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>421000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>268000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>467000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>532000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>451000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>435000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-388000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>510000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>533000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>475000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>196000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>50000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>130000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>37000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-17000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>62000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-67000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-89000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>106000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>81000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>97000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>92000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>122000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>40000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E26" s="3">
         <v>318000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>642000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>225000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>106000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>398000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-94000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>415000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-161000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>363000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>252000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>361000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>522000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>385000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>354000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-485000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>418000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>411000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>435000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>193000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E27" s="3">
         <v>318000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>642000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>225000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>106000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>398000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-94000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>52000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>415000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-161000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>363000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>252000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>361000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>522000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>385000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>354000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-485000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>418000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>411000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>435000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>193000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2059,24 +2119,24 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>37000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>17000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2084,37 +2144,40 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>38000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>13000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1300000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E32" s="3">
         <v>22000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>15000</v>
       </c>
       <c r="N32" s="3">
         <v>15000</v>
       </c>
       <c r="O32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>10000</v>
       </c>
       <c r="T32" s="3">
         <v>10000</v>
       </c>
       <c r="U32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="V32" s="3">
         <v>14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>9000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>8000</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E33" s="3">
         <v>318000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>642000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>225000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>143000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>398000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-94000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>52000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>432000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-161000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>363000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>252000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>399000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>490000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>385000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>367000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>815000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>418000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>411000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>435000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>193000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E35" s="3">
         <v>318000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>642000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>225000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>143000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>398000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-94000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>52000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>432000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-161000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>363000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>252000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>399000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>490000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>385000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>367000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>815000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>418000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>411000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>435000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>193000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2612000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2614000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2389000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1350000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1708000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2595000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4201000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6202000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2563000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2939000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3314000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1593000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2345000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1460000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1775000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2257000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1628000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1965000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1978000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1923000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2722000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,76 +2871,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E43" s="3">
         <v>584000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>583000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>653000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>486000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>498000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>490000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>562000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>465000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>440000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>553000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>607000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>570000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>592000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>574000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>480000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>396000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>370000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>365000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>465000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>430000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,76 +3155,82 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>148193000</v>
+      </c>
+      <c r="E47" s="3">
         <v>150697000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>150567000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>145106000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>150847000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>146279000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>141960000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>130835000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>131786000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>130319000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>124870000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>120764000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>114097000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>111968000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>111412000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>109209000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>112163000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>110743000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>109562000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>107618000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>105770000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3157,17 +3264,17 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
-        <v>12000</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P48" s="3">
         <v>12000</v>
       </c>
       <c r="Q48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="R48" s="3">
         <v>11000</v>
@@ -3179,19 +3286,22 @@
         <v>11000</v>
       </c>
       <c r="U48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="V48" s="3">
         <v>23000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>24000</v>
       </c>
       <c r="W48" s="3">
         <v>24000</v>
       </c>
       <c r="X48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3229,22 +3339,22 @@
         <v>1778000</v>
       </c>
       <c r="O49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="P49" s="3">
         <v>1782000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1757000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1368000</v>
       </c>
       <c r="S49" s="3">
         <v>1368000</v>
       </c>
       <c r="T49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="U49" s="3">
         <v>2273000</v>
@@ -3258,8 +3368,11 @@
       <c r="X49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,8 +3510,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3462,8 +3581,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>387301000</v>
+      </c>
+      <c r="E54" s="3">
         <v>377052000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>380148000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>366760000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>365948000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>347804000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>339659000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>318649000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>334761000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>325278000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>322259000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>314299000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>298147000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>303850000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>298832000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>279237000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>281763000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>276785000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>271651000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>267468000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>261627000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,8 +3779,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3718,8 +3848,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3733,7 +3866,7 @@
         <v>300000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3745,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>300000</v>
@@ -3756,20 +3889,20 @@
       <c r="N58" s="3">
         <v>300000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>250000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>450000</v>
       </c>
       <c r="T58" s="3">
         <v>450000</v>
@@ -3778,84 +3911,90 @@
         <v>450000</v>
       </c>
       <c r="V58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="W58" s="3">
         <v>200000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>346585000</v>
+      </c>
+      <c r="E59" s="3">
         <v>336366000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>338377000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>327749000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>322744000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>304311000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>295071000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>277502000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>295223000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>284167000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>283850000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>278638000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>265262000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>277551000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>273082000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>252419000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>253550000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>247302000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>242933000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>240097000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>234761000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,76 +4061,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6325000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6323000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6334000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6294000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6682000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6714000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6736000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6748000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6067000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6070000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5621000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5572000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5839000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5804000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5826000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5648000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4894000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4900000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4901000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5133000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5345000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4058,8 +4203,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>367029000</v>
+      </c>
+      <c r="E66" s="3">
         <v>355882000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>358403000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>347167000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>343249000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>326255000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>318928000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>302074000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>315072000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>305279000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>303804000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>297882000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>283797000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>288780000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>283655000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>263252000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>264441000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>260471000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>255655000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>252495000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>247149000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9096000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9365000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9245000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8775000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8686000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8647000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8327000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8500000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8854000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8559000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8878000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8679000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8551000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8615000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8302000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8052000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8399000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7738000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7511000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7287000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7043000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20272000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21170000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21745000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19593000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22699000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21549000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20731000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16575000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19689000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19999000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18455000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16417000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14350000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15070000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15177000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15985000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17322000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16314000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15996000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14973000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14478000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E81" s="3">
         <v>318000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>642000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>225000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>143000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>398000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-94000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>52000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>432000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-161000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>363000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>252000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>399000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>490000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>385000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>367000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>815000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>418000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>411000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>435000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>193000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,8 +5400,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5271,8 +5469,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E89" s="3">
         <v>339000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>411000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-642000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>193000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-630000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>516000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>455000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>171000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-295000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>909000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>402000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>492000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>140000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>179000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>407000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>93000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>109000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>595000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,8 +5924,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5773,8 +5993,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1131000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-918000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-806000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-712000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>742000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1074000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-595000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-780000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-505000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-80000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-81000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-80000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-77000</v>
       </c>
       <c r="I96" s="3">
         <v>-77000</v>
       </c>
       <c r="J96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-79000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-74000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-76000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-72000</v>
       </c>
       <c r="P96" s="3">
         <v>-72000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-73000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-72000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-64000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-66000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-67000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-58000</v>
       </c>
       <c r="X96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,76 +6517,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="E100" s="3">
         <v>804000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1434000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>996000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1956000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2105000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1589000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2442000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2667000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2146000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1878000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1712000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1551000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1150000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>804000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1084000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>888000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>360000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>467000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>591000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>737000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,72 +6659,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>225000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1039000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-358000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-887000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3639000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-376000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-375000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1721000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-752000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>885000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-315000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-482000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>629000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-337000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>55000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-799000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-722000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,169 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4687000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4603000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5241000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4851000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4534000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4136000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5361000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3517000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4425000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4346000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4640000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4314000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3973000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4542000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4278000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4028000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3619000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3626000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3532000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3593000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3522000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3339000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +897,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +971,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,28 +1147,31 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1161,49 +1180,52 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2000</v>
       </c>
       <c r="Q14" s="3">
         <v>2000</v>
       </c>
       <c r="R14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>906000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>4000</v>
       </c>
       <c r="W14" s="3">
         <v>4000</v>
       </c>
       <c r="X14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y14" s="3">
         <v>32000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,35 +1253,35 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>15000</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>15000</v>
       </c>
       <c r="N15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O15" s="3">
         <v>19000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>2000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1000</v>
       </c>
       <c r="S15" s="3">
         <v>1000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="T15" s="3">
         <v>1000</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V15" s="3">
         <v>1000</v>
@@ -1267,14 +1289,17 @@
       <c r="W15" s="3">
         <v>1000</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
+      <c r="X15" s="3">
+        <v>1000</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4498000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4271000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4784000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3993000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4194000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3958000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4815000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3580000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4311000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3772000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4761000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3808000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3619000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3977000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3657000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3489000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3072000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3935000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2943000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2976000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2966000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2950000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E18" s="3">
         <v>332000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>457000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>858000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>340000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>178000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>546000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-63000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>114000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>574000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-121000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>506000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>354000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>565000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>621000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>539000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>547000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-309000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>589000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>617000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>556000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>389000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,79 +1498,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-30000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-21000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-15000</v>
       </c>
       <c r="O20" s="3">
         <v>-15000</v>
       </c>
       <c r="P20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-10000</v>
       </c>
       <c r="U20" s="3">
         <v>-10000</v>
       </c>
       <c r="V20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-9000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1578,38 +1614,41 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>549000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>604000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>523000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>533000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-319000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>579000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>603000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>548000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>381000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1617,212 +1656,221 @@
         <v>66000</v>
       </c>
       <c r="E22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F22" s="3">
         <v>67000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>65000</v>
       </c>
       <c r="G22" s="3">
         <v>65000</v>
       </c>
       <c r="H22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="I22" s="3">
         <v>66000</v>
       </c>
       <c r="J22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K22" s="3">
         <v>84000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>74000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>115000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>70000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>71000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>78000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>71000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>72000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>97000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>69000</v>
       </c>
       <c r="U22" s="3">
         <v>69000</v>
       </c>
       <c r="V22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="W22" s="3">
         <v>70000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>72000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>185000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E23" s="3">
         <v>236000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>368000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>772000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>262000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>89000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>460000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-161000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>481000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-250000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>421000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>268000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>467000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>532000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>451000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>435000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-388000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>510000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>533000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>475000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>196000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>50000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>130000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>37000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>62000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-67000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-89000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>106000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>81000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>97000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>92000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>122000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>40000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E26" s="3">
         <v>220000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>318000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>642000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>225000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>106000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>398000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-94000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>415000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-161000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>363000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>252000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>361000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>522000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>385000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>354000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-485000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>418000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>411000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>435000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>193000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E27" s="3">
         <v>220000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>318000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>642000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>225000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>106000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>398000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-94000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>52000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>415000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-161000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>363000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>252000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>361000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>522000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>385000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>354000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-485000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>418000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>411000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>435000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>193000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2122,24 +2182,24 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>37000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>17000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2147,37 +2207,40 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>38000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-32000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>13000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1300000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E32" s="3">
         <v>30000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>21000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>15000</v>
       </c>
       <c r="O32" s="3">
         <v>15000</v>
       </c>
       <c r="P32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>10000</v>
       </c>
       <c r="U32" s="3">
         <v>10000</v>
       </c>
       <c r="V32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W32" s="3">
         <v>14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>9000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>8000</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E33" s="3">
         <v>220000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>318000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>642000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>225000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>143000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>398000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-94000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>52000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>432000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-161000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>363000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>252000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>399000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>490000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>385000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>367000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>815000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>418000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>411000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>435000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>193000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E35" s="3">
         <v>220000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>318000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>642000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>225000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>143000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>398000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-94000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>52000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>432000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-161000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>363000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>252000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>399000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>490000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>385000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>367000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>815000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>418000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>411000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>435000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>193000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2817,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1960000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2612000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2614000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2389000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1350000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1708000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2595000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4201000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6202000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2563000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2939000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3314000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1593000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2345000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1460000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1775000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2257000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1628000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1965000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1978000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1923000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2722000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2874,79 +2963,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E43" s="3">
         <v>580000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>584000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>583000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>653000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>486000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>498000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>490000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>562000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>465000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>440000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>553000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>607000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>570000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>592000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>574000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>480000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>396000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>370000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>365000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>465000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>430000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3111,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3185,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,79 +3259,85 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>139784000</v>
+      </c>
+      <c r="E47" s="3">
         <v>148193000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>150697000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>150567000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>145106000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>150847000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>146279000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>141960000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>130835000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>131786000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>130319000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>124870000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>120764000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>114097000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>111968000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>111412000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>109209000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>112163000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>110743000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>109562000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>107618000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>105770000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3267,17 +3374,17 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
-        <v>12000</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q48" s="3">
         <v>12000</v>
       </c>
       <c r="R48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="S48" s="3">
         <v>11000</v>
@@ -3289,19 +3396,22 @@
         <v>11000</v>
       </c>
       <c r="V48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="W48" s="3">
         <v>23000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>24000</v>
       </c>
       <c r="X48" s="3">
         <v>24000</v>
       </c>
       <c r="Y48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="Z48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3342,22 +3452,22 @@
         <v>1778000</v>
       </c>
       <c r="P49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1782000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1757000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1368000</v>
       </c>
       <c r="T49" s="3">
         <v>1368000</v>
       </c>
       <c r="U49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="V49" s="3">
         <v>2273000</v>
@@ -3371,8 +3481,11 @@
       <c r="Y49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,8 +3629,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3584,8 +3703,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>365929000</v>
+      </c>
+      <c r="E54" s="3">
         <v>387301000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>377052000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>380148000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>366760000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>365948000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>347804000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>339659000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>318649000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>334761000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>325278000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>322259000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>314299000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>298147000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>303850000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>298832000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>279237000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>281763000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>276785000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>271651000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>267468000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>261627000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,8 +3909,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3851,13 +3981,16 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>300000</v>
@@ -3869,7 +4002,7 @@
         <v>300000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3881,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>300000</v>
@@ -3892,20 +4025,20 @@
       <c r="O58" s="3">
         <v>300000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>250000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>450000</v>
       </c>
       <c r="U58" s="3">
         <v>450000</v>
@@ -3914,87 +4047,93 @@
         <v>450000</v>
       </c>
       <c r="W58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="X58" s="3">
         <v>200000</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>332644000</v>
+      </c>
+      <c r="E59" s="3">
         <v>346585000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>336366000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>338377000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>327749000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>322744000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>304311000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>295071000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>277502000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>295223000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>284167000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>283850000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>278638000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>265262000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>277551000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>273082000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>252419000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>253550000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>247302000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>242933000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>240097000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>234761000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,79 +4203,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6561000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6325000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6323000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6334000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6294000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6682000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6714000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6736000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6748000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6067000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6070000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5621000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5572000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5839000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5804000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5826000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5648000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4894000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4900000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4901000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5133000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5345000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4206,8 +4351,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>351217000</v>
+      </c>
+      <c r="E66" s="3">
         <v>367029000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>355882000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>358403000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>347167000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>343249000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>326255000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>318928000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>302074000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>315072000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>305279000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>303804000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>297882000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>283797000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>288780000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>283655000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>263252000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>264441000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>260471000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>255655000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>252495000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>247149000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8876000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9096000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9365000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9245000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8775000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8686000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8647000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8327000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8500000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8854000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8559000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8878000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8679000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8551000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8615000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8302000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8052000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8399000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7738000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7511000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7287000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7043000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14712000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20272000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21170000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21745000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19593000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22699000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21549000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20731000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16575000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19689000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19999000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18455000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16417000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14350000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15070000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15177000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15985000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17322000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16314000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15996000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14973000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14478000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E81" s="3">
         <v>220000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>318000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>642000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>225000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>143000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>398000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-94000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>52000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>432000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-161000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>363000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>252000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>399000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>490000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>385000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>367000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>815000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>418000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>411000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>435000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>193000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,8 +5598,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5472,8 +5670,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E89" s="3">
         <v>43000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>339000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>411000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-642000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>193000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-630000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>516000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>455000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>171000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-295000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>909000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>402000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>492000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>140000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>179000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>407000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>93000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>109000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>595000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,8 +6144,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5996,8 +6216,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2141000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1131000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-918000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-806000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-712000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>742000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1074000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-595000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-780000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-505000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6468,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-78000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-80000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-81000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-80000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-77000</v>
       </c>
       <c r="J96" s="3">
         <v>-77000</v>
       </c>
       <c r="K96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-79000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-76000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-74000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-76000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-72000</v>
       </c>
       <c r="Q96" s="3">
         <v>-72000</v>
       </c>
       <c r="R96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-73000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-72000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-64000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-66000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-67000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-58000</v>
       </c>
       <c r="Y96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,79 +6762,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>736000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1086000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>804000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1434000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>996000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1956000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2105000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1589000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2442000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2667000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2146000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1878000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1712000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1150000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>804000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1084000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>888000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>360000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>467000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>591000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>737000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6662,75 +6910,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-652000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>225000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1039000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-358000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-887000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3639000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-376000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-375000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1721000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-752000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>885000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-315000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-482000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>629000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-337000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>55000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-799000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-722000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5104000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4687000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4603000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5241000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4851000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4534000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4136000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5361000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3517000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4425000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4346000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4640000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4314000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3973000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4542000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4278000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4028000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3619000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3626000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3532000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3593000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3522000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3339000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,31 +1166,34 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1183,49 +1202,52 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2000</v>
       </c>
       <c r="R14" s="3">
         <v>2000</v>
       </c>
       <c r="S14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>906000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9000</v>
-      </c>
-      <c r="W14" s="3">
-        <v>4000</v>
       </c>
       <c r="X14" s="3">
         <v>4000</v>
       </c>
       <c r="Y14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z14" s="3">
         <v>32000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,35 +1278,35 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
-        <v>15000</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>15000</v>
       </c>
       <c r="O15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P15" s="3">
         <v>19000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>2000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1000</v>
       </c>
       <c r="T15" s="3">
         <v>1000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="U15" s="3">
         <v>1000</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W15" s="3">
         <v>1000</v>
@@ -1292,14 +1314,17 @@
       <c r="X15" s="3">
         <v>1000</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
+      <c r="Y15" s="3">
+        <v>1000</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4723000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4498000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4271000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4784000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3993000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4194000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3958000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4815000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3580000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4311000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3772000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4761000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3808000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3619000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3977000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3657000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3489000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3072000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3935000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2943000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2976000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2966000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2950000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E18" s="3">
         <v>189000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>332000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>457000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>858000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>340000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>178000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>546000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-63000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>114000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>574000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-121000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>506000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>354000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>565000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>621000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>539000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>547000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-309000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>589000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>617000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>556000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>389000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,82 +1531,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-31000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-30000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-22000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-21000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-23000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-15000</v>
       </c>
       <c r="P20" s="3">
         <v>-15000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-10000</v>
       </c>
       <c r="V20" s="3">
         <v>-10000</v>
       </c>
       <c r="W20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="X20" s="3">
         <v>-14000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1617,260 +1653,272 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>549000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>604000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>523000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>533000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-319000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>579000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>603000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>548000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>381000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="E22" s="3">
         <v>66000</v>
       </c>
       <c r="F22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="G22" s="3">
         <v>67000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>65000</v>
       </c>
       <c r="H22" s="3">
         <v>65000</v>
       </c>
       <c r="I22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="J22" s="3">
         <v>66000</v>
       </c>
       <c r="K22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="L22" s="3">
         <v>84000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>65000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>74000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>115000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>70000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>71000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>78000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>72000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>97000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>69000</v>
       </c>
       <c r="V22" s="3">
         <v>69000</v>
       </c>
       <c r="W22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="X22" s="3">
         <v>70000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>72000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>185000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E23" s="3">
         <v>92000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>236000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>368000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>772000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>262000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>89000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>460000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-161000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>481000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-250000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>421000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>268000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>467000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>532000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>451000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>435000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-388000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>510000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>533000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>475000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>196000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>50000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>130000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>37000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>62000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-67000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-89000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>16000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>106000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>66000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>81000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>97000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>92000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>122000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>40000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E26" s="3">
         <v>104000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>220000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>318000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>642000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>225000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>106000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>398000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-94000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>52000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>415000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-161000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>363000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>252000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>361000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>522000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>385000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>354000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-485000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>418000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>411000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>435000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>193000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E27" s="3">
         <v>104000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>220000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>318000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>642000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>225000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>106000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>398000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-94000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>52000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>415000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-161000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>363000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>252000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>361000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>522000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>385000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>354000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-485000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>418000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>411000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>435000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>193000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2185,24 +2245,24 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>37000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>17000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2210,37 +2270,40 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>38000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-32000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>13000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1300000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E32" s="3">
         <v>31000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>30000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>22000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>21000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>23000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>15000</v>
       </c>
       <c r="P32" s="3">
         <v>15000</v>
       </c>
       <c r="Q32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>10000</v>
       </c>
       <c r="V32" s="3">
         <v>10000</v>
       </c>
       <c r="W32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="X32" s="3">
         <v>14000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>9000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8000</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E33" s="3">
         <v>104000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>220000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>318000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>642000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>225000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>143000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>398000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-94000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>52000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>432000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-161000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>363000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>252000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>399000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>490000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>385000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>367000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>815000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>418000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>411000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>435000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>193000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E35" s="3">
         <v>104000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>220000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>318000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>642000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>225000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>143000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>398000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-94000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>52000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>432000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-161000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>363000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>252000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>399000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>490000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>385000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>367000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>815000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>418000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>411000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>435000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>193000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,82 +2903,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1567000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1960000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2612000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2614000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2389000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1350000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1708000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2595000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4201000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6202000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2563000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2939000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3314000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1593000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2345000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1460000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1775000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2257000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1628000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1965000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1978000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1923000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2722000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2966,82 +3055,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E43" s="3">
         <v>671000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>580000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>584000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>583000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>653000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>486000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>498000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>490000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>562000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>465000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>440000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>553000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>607000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>570000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>592000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>574000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>480000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>396000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>370000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>365000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>465000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>430000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3209,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3286,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3262,82 +3363,88 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>131875000</v>
+      </c>
+      <c r="E47" s="3">
         <v>139784000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>148193000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>150697000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>150567000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>145106000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>150847000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>146279000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>141960000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>130835000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>131786000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>130319000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>124870000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>120764000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>114097000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>111968000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>111412000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>109209000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>112163000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>110743000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>109562000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>107618000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>105770000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3377,17 +3484,17 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>12000</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R48" s="3">
         <v>12000</v>
       </c>
       <c r="S48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="T48" s="3">
         <v>11000</v>
@@ -3399,19 +3506,22 @@
         <v>11000</v>
       </c>
       <c r="W48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="X48" s="3">
         <v>23000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>24000</v>
       </c>
       <c r="Y48" s="3">
         <v>24000</v>
       </c>
       <c r="Z48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AA48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3455,22 +3565,22 @@
         <v>1778000</v>
       </c>
       <c r="Q49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="R49" s="3">
         <v>1782000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1757000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1368000</v>
       </c>
       <c r="U49" s="3">
         <v>1368000</v>
       </c>
       <c r="V49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="W49" s="3">
         <v>2273000</v>
@@ -3484,8 +3594,11 @@
       <c r="Z49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,8 +3748,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3706,8 +3825,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>335769000</v>
+      </c>
+      <c r="E54" s="3">
         <v>365929000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>387301000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>377052000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>380148000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>366760000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>365948000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>347804000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>339659000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>318649000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>334761000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>325278000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>322259000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>314299000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>298147000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>303850000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>298832000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>279237000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>281763000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>276785000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>271651000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>267468000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>261627000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,8 +4039,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3984,8 +4114,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3993,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>300000</v>
@@ -4005,7 +4138,7 @@
         <v>300000</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4017,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>300000</v>
@@ -4028,20 +4161,20 @@
       <c r="P58" s="3">
         <v>300000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>250000</v>
-      </c>
-      <c r="U58" s="3">
-        <v>450000</v>
       </c>
       <c r="V58" s="3">
         <v>450000</v>
@@ -4050,90 +4183,96 @@
         <v>450000</v>
       </c>
       <c r="X58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200000</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>309977000</v>
+      </c>
+      <c r="E59" s="3">
         <v>332644000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>346585000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>336366000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>338377000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>327749000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>322744000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>304311000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>295071000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>277502000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>295223000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>284167000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>283850000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>278638000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>265262000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>277551000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>273082000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>252419000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>253550000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>247302000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>242933000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>240097000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>234761000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4206,82 +4345,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6498000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6561000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6325000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6323000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6334000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6294000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6682000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6714000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6736000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6748000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6067000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6070000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5621000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5572000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5839000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5804000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5826000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5648000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4894000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4900000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4901000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5133000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5345000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4354,8 +4499,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>326581000</v>
+      </c>
+      <c r="E66" s="3">
         <v>351217000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>367029000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>355882000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>358403000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>347167000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>343249000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>326255000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>318928000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>302074000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>315072000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>305279000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>303804000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>297882000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>283797000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>288780000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>283655000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>263252000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>264441000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>260471000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>255655000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>252495000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>247149000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8985000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8876000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9096000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9365000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9245000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8775000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8686000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8647000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8327000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8500000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8854000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8559000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8878000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8679000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8551000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8615000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8302000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8052000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8399000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7738000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7511000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7287000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7043000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9188000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14712000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20272000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21170000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21745000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19593000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22699000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21549000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20731000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16575000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19689000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19999000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18455000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16417000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14350000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15070000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15177000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15985000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17322000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16314000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15996000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14973000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14478000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E81" s="3">
         <v>104000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>220000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>318000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>642000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>225000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>143000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>398000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-94000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>52000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>432000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-161000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>363000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>252000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>399000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>490000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>385000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>367000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>815000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>418000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>411000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>435000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>193000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,8 +5796,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5673,8 +5871,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1955000</v>
+      </c>
+      <c r="E89" s="3">
         <v>753000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>339000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>411000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-642000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>193000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-630000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>516000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>455000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>171000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-295000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>909000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>402000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>492000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>140000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>179000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>407000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>93000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>109000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>595000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,8 +6364,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6219,8 +6439,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4608000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2141000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1131000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-918000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-806000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-712000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>742000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1074000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-595000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-780000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-505000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-79000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-78000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-80000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-81000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-80000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-77000</v>
       </c>
       <c r="K96" s="3">
         <v>-77000</v>
       </c>
       <c r="L96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-79000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-76000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-74000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-76000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-72000</v>
       </c>
       <c r="R96" s="3">
         <v>-72000</v>
       </c>
       <c r="S96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-73000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-72000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-64000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-66000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-67000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-58000</v>
       </c>
       <c r="Z96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,82 +7007,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2260000</v>
+      </c>
+      <c r="E100" s="3">
         <v>736000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1086000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>804000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1434000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>996000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1956000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2105000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1589000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2442000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2667000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2146000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1878000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1712000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1551000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1150000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>804000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1084000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>888000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>360000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>467000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>591000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>737000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6913,78 +7161,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-393000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-652000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>225000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1039000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-358000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-887000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3639000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-376000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-375000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1721000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-752000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>885000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-315000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-482000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>629000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-337000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>55000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-799000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-722000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,181 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4798000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5104000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4687000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4603000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5241000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4851000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4534000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4136000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5361000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3517000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4425000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4346000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4640000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4314000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3973000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4542000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4278000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4028000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3619000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3626000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3532000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3593000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3522000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3339000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,8 +915,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,34 +1185,37 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>634000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1205,49 +1224,52 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2000</v>
       </c>
       <c r="S14" s="3">
         <v>2000</v>
       </c>
       <c r="T14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>906000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9000</v>
-      </c>
-      <c r="X14" s="3">
-        <v>4000</v>
       </c>
       <c r="Y14" s="3">
         <v>4000</v>
       </c>
       <c r="Z14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AA14" s="3">
         <v>32000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,35 +1303,35 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>15000</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>15000</v>
       </c>
       <c r="P15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>19000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>18000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>2000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1000</v>
       </c>
       <c r="U15" s="3">
         <v>1000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="V15" s="3">
         <v>1000</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X15" s="3">
         <v>1000</v>
@@ -1317,14 +1339,17 @@
       <c r="Y15" s="3">
         <v>1000</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
+      <c r="Z15" s="3">
+        <v>1000</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7820000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4723000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4498000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4271000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4784000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3993000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4194000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3958000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4815000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3580000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4311000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3772000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4761000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3808000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3619000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3977000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3657000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3489000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3072000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3935000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2943000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2976000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2966000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2950000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3022000</v>
+      </c>
+      <c r="E18" s="3">
         <v>381000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>189000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>332000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>457000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>858000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>340000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>178000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>546000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>114000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>574000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-121000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>506000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>354000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>565000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>621000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>539000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>547000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-309000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>589000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>617000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>556000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>389000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,8 +1564,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1541,76 +1574,79 @@
         <v>-44000</v>
       </c>
       <c r="E20" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-31000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-30000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-21000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-23000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q20" s="3">
         <v>-15000</v>
       </c>
       <c r="R20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-16000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-10000</v>
       </c>
       <c r="W20" s="3">
         <v>-10000</v>
       </c>
       <c r="X20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1656,269 +1692,281 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>549000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>604000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>523000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>533000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-319000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>579000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>603000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>548000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>381000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E22" s="3">
         <v>68000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>66000</v>
       </c>
       <c r="F22" s="3">
         <v>66000</v>
       </c>
       <c r="G22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="H22" s="3">
         <v>67000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>65000</v>
       </c>
       <c r="I22" s="3">
         <v>65000</v>
       </c>
       <c r="J22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="K22" s="3">
         <v>66000</v>
       </c>
       <c r="L22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="M22" s="3">
         <v>84000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>65000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>74000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>115000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>70000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>71000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>78000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>71000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>72000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>97000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>69000</v>
       </c>
       <c r="W22" s="3">
         <v>69000</v>
       </c>
       <c r="X22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>70000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>72000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>185000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3137000</v>
+      </c>
+      <c r="E23" s="3">
         <v>269000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>92000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>236000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>368000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>772000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>262000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>460000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-161000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>481000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-250000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>421000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>268000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>467000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>532000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>451000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>435000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-388000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>510000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>533000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>475000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>196000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-563000</v>
+      </c>
+      <c r="E24" s="3">
         <v>31000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>50000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>130000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>37000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-17000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-67000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-18000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>66000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-89000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>106000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>66000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>81000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>97000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>92000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>122000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>40000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2574000</v>
+      </c>
+      <c r="E26" s="3">
         <v>238000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>104000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>220000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>318000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>642000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>225000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>106000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>398000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-94000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>52000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>415000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-161000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>363000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>252000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>361000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>522000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>385000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>354000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-485000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>418000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>411000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>435000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>193000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2574000</v>
+      </c>
+      <c r="E27" s="3">
         <v>238000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>104000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>220000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>318000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>642000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>225000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>106000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>398000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-94000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>52000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>415000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-161000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>363000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>252000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>361000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>522000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>385000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>354000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-485000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>418000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>411000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>435000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>193000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2248,24 +2308,24 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>37000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>17000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2273,37 +2333,40 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>38000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-32000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>13000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1300000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,8 +2522,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2465,153 +2534,159 @@
         <v>44000</v>
       </c>
       <c r="E32" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F32" s="3">
         <v>31000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>30000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>21000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>23000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>15000</v>
       </c>
       <c r="Q32" s="3">
         <v>15000</v>
       </c>
       <c r="R32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>16000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15000</v>
-      </c>
-      <c r="V32" s="3">
-        <v>10000</v>
       </c>
       <c r="W32" s="3">
         <v>10000</v>
       </c>
       <c r="X32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Y32" s="3">
         <v>14000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>9000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8000</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2574000</v>
+      </c>
+      <c r="E33" s="3">
         <v>238000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>104000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>220000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>318000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>642000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>225000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>143000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>398000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-94000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>52000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>432000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-161000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>363000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>252000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>399000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>490000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>385000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>367000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>815000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>418000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>411000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>435000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>193000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2574000</v>
+      </c>
+      <c r="E35" s="3">
         <v>238000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>104000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>220000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>318000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>642000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>225000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>143000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>398000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-94000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>52000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>432000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-161000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>363000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>252000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>399000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>490000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>385000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>367000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>815000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>418000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>411000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>435000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>193000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2989,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1472000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1567000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1960000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2612000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2614000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2389000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1350000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1708000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2595000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4201000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6202000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2563000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2939000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3314000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1593000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2345000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1460000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1775000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2257000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1628000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1965000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1978000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1923000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2722000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,85 +3147,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E43" s="3">
         <v>656000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>671000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>580000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>584000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>583000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>653000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>486000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>498000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>490000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>562000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>465000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>440000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>553000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>607000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>570000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>592000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>574000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>480000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>396000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>370000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>365000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>465000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>430000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3307,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3387,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,85 +3467,91 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>125812000</v>
+      </c>
+      <c r="E47" s="3">
         <v>131875000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>139784000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>148193000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>150697000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>150567000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>145106000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>150847000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>146279000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>141960000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>130835000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>131786000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>130319000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>124870000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>120764000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>114097000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>111968000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>111412000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>109209000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>112163000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>110743000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>109562000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>107618000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>105770000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3487,17 +3594,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
-        <v>12000</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S48" s="3">
         <v>12000</v>
       </c>
       <c r="T48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="U48" s="3">
         <v>11000</v>
@@ -3509,24 +3616,27 @@
         <v>11000</v>
       </c>
       <c r="X48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Y48" s="3">
         <v>23000</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>24000</v>
       </c>
       <c r="Z48" s="3">
         <v>24000</v>
       </c>
       <c r="AA48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AB48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1778000</v>
+        <v>1144000</v>
       </c>
       <c r="E49" s="3">
         <v>1778000</v>
@@ -3568,22 +3678,22 @@
         <v>1778000</v>
       </c>
       <c r="R49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="S49" s="3">
         <v>1782000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1757000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1368000</v>
       </c>
       <c r="V49" s="3">
         <v>1368000</v>
       </c>
       <c r="W49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="X49" s="3">
         <v>2273000</v>
@@ -3597,8 +3707,11 @@
       <c r="AA49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,8 +3867,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3828,8 +3947,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>324683000</v>
+      </c>
+      <c r="E54" s="3">
         <v>335769000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>365929000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>387301000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>377052000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>380148000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>366760000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>365948000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>347804000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>339659000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>318649000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>334761000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>325278000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>322259000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>314299000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>298147000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>303850000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>298832000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>279237000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>281763000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>276785000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>271651000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>267468000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>261627000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,8 +4169,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4117,19 +4247,22 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300000</v>
@@ -4141,7 +4274,7 @@
         <v>300000</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4153,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>300000</v>
@@ -4164,20 +4297,20 @@
       <c r="Q58" s="3">
         <v>300000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>250000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>450000</v>
       </c>
       <c r="W58" s="3">
         <v>450000</v>
@@ -4186,93 +4319,99 @@
         <v>450000</v>
       </c>
       <c r="Y58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>200000</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>306240000</v>
+      </c>
+      <c r="E59" s="3">
         <v>309977000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>332644000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>346585000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>336366000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>338377000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>327749000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>322744000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>304311000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>295071000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>277502000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>295223000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>284167000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>283850000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>278638000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>265262000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>277551000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>273082000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>252419000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>253550000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>247302000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>242933000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>240097000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>234761000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,85 +4487,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5959000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6498000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6561000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6325000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6323000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6334000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6294000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6682000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6714000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6736000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6748000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6067000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6070000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5621000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5572000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5839000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5804000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5826000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5648000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4894000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4900000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4901000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5133000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5345000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4502,8 +4647,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>322466000</v>
+      </c>
+      <c r="E66" s="3">
         <v>326581000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>351217000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>367029000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>355882000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>358403000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>347167000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>343249000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>326255000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>318928000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>302074000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>315072000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>305279000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>303804000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>297882000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>283797000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>288780000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>283655000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>263252000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>264441000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>260471000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>255655000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>252495000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>247149000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6311000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8985000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8876000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9096000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9365000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9245000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8775000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8686000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8647000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8327000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8500000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8854000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8559000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8878000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8679000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8551000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8615000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8302000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8052000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8399000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7738000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7511000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7287000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7043000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2217000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9188000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14712000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20272000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21170000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21745000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19593000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22699000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21549000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20731000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16575000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19689000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19999000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18455000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16417000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14350000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15070000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15177000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15985000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17322000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16314000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15996000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14973000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14478000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2574000</v>
+      </c>
+      <c r="E81" s="3">
         <v>238000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>104000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>220000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>318000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>642000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>225000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>143000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>398000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-94000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>52000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>432000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-161000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>363000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>252000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>399000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>490000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>385000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>367000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>815000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>418000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>411000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>435000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>193000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,8 +5994,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5874,8 +6072,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1955000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>753000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>43000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>339000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>411000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-642000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>193000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-630000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>516000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>455000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>171000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-295000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>909000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>402000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>492000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>140000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>179000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>407000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>93000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>109000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>595000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,8 +6584,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6442,8 +6662,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3118000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4608000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2141000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1131000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-918000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-806000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-712000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>742000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1074000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-595000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-780000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-505000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-78000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-79000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-78000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-80000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-81000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-80000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-77000</v>
       </c>
       <c r="L96" s="3">
         <v>-77000</v>
       </c>
       <c r="M96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-79000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-76000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-74000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-72000</v>
       </c>
       <c r="S96" s="3">
         <v>-72000</v>
       </c>
       <c r="T96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-73000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-72000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-64000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-66000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-67000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-58000</v>
       </c>
       <c r="AA96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,85 +7252,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2337000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2260000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>736000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1086000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>804000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1434000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>996000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1956000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2105000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1589000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2442000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2667000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2146000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1878000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1712000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1551000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1150000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>804000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1084000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>888000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>360000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>467000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>591000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>737000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7164,81 +7412,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-393000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-652000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>225000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1039000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-358000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-887000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3639000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-376000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-375000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1721000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-752000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>885000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-315000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-482000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>629000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-337000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>55000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-799000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-722000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,187 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4195000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4798000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5104000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4687000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4603000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5241000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4851000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4534000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4136000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5361000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3517000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4425000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4346000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4640000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4314000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3973000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4542000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4278000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4028000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3619000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3626000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3532000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3593000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3522000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3339000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,8 +924,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,8 +1007,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,37 +1204,40 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>634000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1227,49 +1246,52 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2000</v>
       </c>
       <c r="T14" s="3">
         <v>2000</v>
       </c>
       <c r="U14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>906000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9000</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>4000</v>
       </c>
       <c r="Z14" s="3">
         <v>4000</v>
       </c>
       <c r="AA14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB14" s="3">
         <v>32000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1306,35 +1328,35 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
-        <v>15000</v>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>15000</v>
       </c>
       <c r="Q15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="R15" s="3">
         <v>19000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>2000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1000</v>
       </c>
       <c r="V15" s="3">
         <v>1000</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="W15" s="3">
         <v>1000</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y15" s="3">
         <v>1000</v>
@@ -1342,14 +1364,17 @@
       <c r="Z15" s="3">
         <v>1000</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
+      <c r="AA15" s="3">
+        <v>1000</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4103000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7820000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4723000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4498000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4271000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4784000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3993000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4194000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3958000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4815000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3580000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4311000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3772000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4761000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3808000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3619000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3977000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3657000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3489000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3072000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3935000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2943000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2976000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2966000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2950000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3022000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>381000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>189000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>332000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>457000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>858000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>340000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>178000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>546000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-63000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>114000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>574000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>506000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>354000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>565000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>621000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>539000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>547000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-309000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>589000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>617000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>556000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>389000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,88 +1597,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44000</v>
+        <v>-49000</v>
       </c>
       <c r="E20" s="3">
         <v>-44000</v>
       </c>
       <c r="F20" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-31000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-21000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-15000</v>
       </c>
       <c r="R20" s="3">
         <v>-15000</v>
       </c>
       <c r="S20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-18000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-16000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-10000</v>
       </c>
       <c r="X20" s="3">
         <v>-10000</v>
       </c>
       <c r="Y20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1695,278 +1731,290 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>549000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>604000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>523000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>533000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-319000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>579000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>603000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>548000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>381000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E22" s="3">
         <v>71000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>68000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>66000</v>
       </c>
       <c r="G22" s="3">
         <v>66000</v>
       </c>
       <c r="H22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I22" s="3">
         <v>67000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>65000</v>
       </c>
       <c r="J22" s="3">
         <v>65000</v>
       </c>
       <c r="K22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="L22" s="3">
         <v>66000</v>
       </c>
       <c r="M22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="N22" s="3">
         <v>84000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>65000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>74000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>115000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>70000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>78000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>71000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>72000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>97000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>69000</v>
       </c>
       <c r="X22" s="3">
         <v>69000</v>
       </c>
       <c r="Y22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>70000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>72000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>185000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3137000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>269000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>92000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>236000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>368000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>772000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>262000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>460000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-161000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>481000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-250000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>421000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>268000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>467000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>532000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>451000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>435000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-388000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>510000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>533000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>475000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>196000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-563000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>130000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>37000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-17000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>62000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-18000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>66000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-89000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>106000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>66000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>81000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>97000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>92000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>122000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>40000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2574000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>238000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>104000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>220000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>318000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>642000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>225000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>106000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>398000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-94000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>52000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>415000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>363000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>252000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>361000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>522000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>385000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>354000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-485000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>418000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>411000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>435000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>193000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2574000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>238000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>104000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>220000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>318000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>642000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>225000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>106000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>398000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-94000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>52000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>415000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>363000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>252000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>361000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>522000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>385000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>354000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-485000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>418000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>411000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>435000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>193000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2311,24 +2371,24 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>37000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>17000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2336,37 +2396,40 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>38000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-32000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>13000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1300000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2591,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44000</v>
+        <v>49000</v>
       </c>
       <c r="E32" s="3">
         <v>44000</v>
       </c>
       <c r="F32" s="3">
+        <v>44000</v>
+      </c>
+      <c r="G32" s="3">
         <v>31000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>21000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>15000</v>
       </c>
       <c r="R32" s="3">
         <v>15000</v>
       </c>
       <c r="S32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="T32" s="3">
         <v>20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>18000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>16000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>10000</v>
       </c>
       <c r="X32" s="3">
         <v>10000</v>
       </c>
       <c r="Y32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>14000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>9000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>8000</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2574000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>238000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>104000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>220000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>318000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>642000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>225000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>143000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>398000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-94000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>52000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>432000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>363000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>252000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>399000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>490000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>385000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>367000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>815000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>418000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>411000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>435000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>193000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2574000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>238000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>104000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>220000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>318000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>642000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>225000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>398000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-94000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>52000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>432000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>363000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>252000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>399000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>490000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>385000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>367000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>815000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>418000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>411000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>435000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>193000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,88 +3075,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3343000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1472000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1567000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1960000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2612000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2614000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2389000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1350000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1708000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2595000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4201000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6202000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2563000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2939000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3314000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1593000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2345000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1460000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1775000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2257000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1628000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1965000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1978000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1923000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2722000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,88 +3239,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
         <v>583000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>656000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>671000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>580000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>584000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>583000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>653000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>486000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>498000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>490000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>562000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>465000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>440000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>553000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>607000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>570000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>592000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>574000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>480000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>396000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>370000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>365000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>465000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>430000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3310,8 +3405,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3390,8 +3488,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3470,88 +3571,94 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>128060000</v>
+      </c>
+      <c r="E47" s="3">
         <v>125812000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>131875000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>139784000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>148193000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>150697000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>150567000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>145106000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>150847000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>146279000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>141960000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>130835000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>131786000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>130319000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>124870000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>120764000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>114097000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>111968000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>111412000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>109209000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>112163000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>110743000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>109562000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>107618000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>105770000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3597,17 +3704,17 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
-        <v>12000</v>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T48" s="3">
         <v>12000</v>
       </c>
       <c r="U48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="V48" s="3">
         <v>11000</v>
@@ -3619,19 +3726,22 @@
         <v>11000</v>
       </c>
       <c r="Y48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Z48" s="3">
         <v>23000</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>24000</v>
       </c>
       <c r="AA48" s="3">
         <v>24000</v>
       </c>
       <c r="AB48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AC48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3639,7 +3749,7 @@
         <v>1144000</v>
       </c>
       <c r="E49" s="3">
-        <v>1778000</v>
+        <v>1144000</v>
       </c>
       <c r="F49" s="3">
         <v>1778000</v>
@@ -3681,22 +3791,22 @@
         <v>1778000</v>
       </c>
       <c r="S49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="T49" s="3">
         <v>1782000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1757000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1368000</v>
       </c>
       <c r="W49" s="3">
         <v>1368000</v>
       </c>
       <c r="X49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="Y49" s="3">
         <v>2273000</v>
@@ -3710,8 +3820,11 @@
       <c r="AB49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,8 +3986,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3950,8 +4069,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>335437000</v>
+      </c>
+      <c r="E54" s="3">
         <v>324683000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>335769000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>365929000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>387301000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>377052000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>380148000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>366760000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>365948000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>347804000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>339659000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>318649000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>334761000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>325278000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>322259000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>314299000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>298147000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>303850000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>298832000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>279237000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>281763000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>276785000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>271651000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>267468000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>261627000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,8 +4299,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4250,8 +4380,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4259,13 +4392,13 @@
         <v>500000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>300000</v>
@@ -4277,7 +4410,7 @@
         <v>300000</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4289,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>300000</v>
@@ -4300,20 +4433,20 @@
       <c r="R58" s="3">
         <v>300000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>250000</v>
-      </c>
-      <c r="W58" s="3">
-        <v>450000</v>
       </c>
       <c r="X58" s="3">
         <v>450000</v>
@@ -4322,96 +4455,102 @@
         <v>450000</v>
       </c>
       <c r="Z58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>200000</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>313199000</v>
+      </c>
+      <c r="E59" s="3">
         <v>306240000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>309977000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>332644000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>346585000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>336366000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>338377000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>327749000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>322744000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>304311000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>295071000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>277502000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>295223000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>284167000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>283850000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>278638000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>265262000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>277551000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>273082000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>252419000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>253550000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>247302000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>242933000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>240097000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>234761000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4490,88 +4629,94 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5955000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5959000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6498000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6561000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6325000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6323000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6334000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6294000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6682000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6714000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6736000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6748000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6067000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6070000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5621000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5572000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5839000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5804000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5826000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5648000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4894000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4900000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4901000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5133000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5345000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4650,8 +4795,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>331336000</v>
+      </c>
+      <c r="E66" s="3">
         <v>322466000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>326581000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>351217000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>367029000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>355882000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>358403000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>347167000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>343249000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>326255000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>318928000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>302074000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>315072000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>305279000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>303804000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>297882000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>283797000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>288780000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>283655000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>263252000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>264441000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>260471000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>255655000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>252495000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>247149000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,13 +5324,16 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>986000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6239000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6311000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8985000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8876000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9096000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9365000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9245000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8775000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8686000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8647000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8327000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8500000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8854000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8559000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8878000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8679000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8551000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8615000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8302000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8052000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8399000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7738000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7511000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7287000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7043000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3115000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2217000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9188000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14712000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20272000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21170000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21745000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19593000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22699000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21549000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20731000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16575000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19689000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19999000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18455000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16417000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14350000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15070000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15177000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15985000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17322000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>16314000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15996000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14973000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14478000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2574000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>238000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>104000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>220000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>318000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>642000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>225000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>143000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>398000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-94000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>52000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>432000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>363000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>252000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>399000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>490000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>385000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>367000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>815000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>418000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>411000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>435000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>193000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,8 +6192,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6075,8 +6273,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E89" s="3">
         <v>686000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1955000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>753000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>339000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>411000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-642000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>193000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-630000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>516000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>455000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>171000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-295000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>909000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>402000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>492000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>140000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>179000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>407000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>93000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>109000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>595000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,8 +6804,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6665,8 +6885,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1776000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3118000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4608000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2141000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1131000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-918000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-806000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-712000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>742000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1074000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-595000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-780000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-505000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-77000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-78000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-79000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-78000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-80000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-81000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-80000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-77000</v>
       </c>
       <c r="M96" s="3">
         <v>-77000</v>
       </c>
       <c r="N96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-79000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-76000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-76000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-72000</v>
       </c>
       <c r="T96" s="3">
         <v>-72000</v>
       </c>
       <c r="U96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-73000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-72000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-64000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-66000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-67000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-58000</v>
       </c>
       <c r="AB96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,88 +7497,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3008000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2337000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2260000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>736000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1086000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>804000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1434000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>996000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1956000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2105000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1589000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2442000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2667000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2146000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1878000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1712000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1551000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1150000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>804000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1084000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>888000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>360000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>467000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>591000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>737000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7415,84 +7663,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1871000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-95000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-393000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-652000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>225000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1039000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-358000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-887000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3639000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-376000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-375000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1721000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-752000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>885000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-315000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-482000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>629000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-337000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>55000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-799000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-722000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -767,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4195000</v>
+        <v>4177000</v>
       </c>
       <c r="E8" s="3">
         <v>4798000</v>
@@ -776,10 +776,10 @@
         <v>5104000</v>
       </c>
       <c r="G8" s="3">
-        <v>4687000</v>
+        <v>6079000</v>
       </c>
       <c r="H8" s="3">
-        <v>4603000</v>
+        <v>5235000</v>
       </c>
       <c r="I8" s="3">
         <v>5241000</v>
@@ -1221,8 +1221,8 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>14000</v>
@@ -1407,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4103000</v>
+        <v>4104000</v>
       </c>
       <c r="E17" s="3">
         <v>7820000</v>
@@ -1416,10 +1416,10 @@
         <v>4723000</v>
       </c>
       <c r="G17" s="3">
-        <v>4498000</v>
+        <v>4147000</v>
       </c>
       <c r="H17" s="3">
-        <v>4271000</v>
+        <v>4292000</v>
       </c>
       <c r="I17" s="3">
         <v>4784000</v>
@@ -1490,7 +1490,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>92000</v>
+        <v>73000</v>
       </c>
       <c r="E18" s="3">
         <v>-3022000</v>
@@ -1499,10 +1499,10 @@
         <v>381000</v>
       </c>
       <c r="G18" s="3">
-        <v>189000</v>
+        <v>1932000</v>
       </c>
       <c r="H18" s="3">
-        <v>332000</v>
+        <v>943000</v>
       </c>
       <c r="I18" s="3">
         <v>457000</v>
@@ -1853,7 +1853,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35000</v>
+        <v>-54000</v>
       </c>
       <c r="E23" s="3">
         <v>-3137000</v>
@@ -1862,10 +1862,10 @@
         <v>269000</v>
       </c>
       <c r="G23" s="3">
-        <v>92000</v>
+        <v>1835000</v>
       </c>
       <c r="H23" s="3">
-        <v>236000</v>
+        <v>847000</v>
       </c>
       <c r="I23" s="3">
         <v>368000</v>
@@ -1936,7 +1936,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-41000</v>
+        <v>-46000</v>
       </c>
       <c r="E24" s="3">
         <v>-563000</v>
@@ -1945,10 +1945,10 @@
         <v>31000</v>
       </c>
       <c r="G24" s="3">
-        <v>-12000</v>
+        <v>353000</v>
       </c>
       <c r="H24" s="3">
-        <v>16000</v>
+        <v>145000</v>
       </c>
       <c r="I24" s="3">
         <v>50000</v>
@@ -2102,7 +2102,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6000</v>
+        <v>-8000</v>
       </c>
       <c r="E26" s="3">
         <v>-2574000</v>
@@ -2111,10 +2111,10 @@
         <v>238000</v>
       </c>
       <c r="G26" s="3">
-        <v>104000</v>
+        <v>1482000</v>
       </c>
       <c r="H26" s="3">
-        <v>220000</v>
+        <v>702000</v>
       </c>
       <c r="I26" s="3">
         <v>318000</v>
@@ -2185,7 +2185,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6000</v>
+        <v>-8000</v>
       </c>
       <c r="E27" s="3">
         <v>-2574000</v>
@@ -2194,10 +2194,10 @@
         <v>238000</v>
       </c>
       <c r="G27" s="3">
-        <v>104000</v>
+        <v>1481000</v>
       </c>
       <c r="H27" s="3">
-        <v>220000</v>
+        <v>702000</v>
       </c>
       <c r="I27" s="3">
         <v>318000</v>
@@ -2683,7 +2683,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6000</v>
+        <v>-8000</v>
       </c>
       <c r="E33" s="3">
         <v>-2574000</v>
@@ -2692,10 +2692,10 @@
         <v>238000</v>
       </c>
       <c r="G33" s="3">
-        <v>104000</v>
+        <v>1481000</v>
       </c>
       <c r="H33" s="3">
-        <v>220000</v>
+        <v>702000</v>
       </c>
       <c r="I33" s="3">
         <v>318000</v>
@@ -2849,7 +2849,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6000</v>
+        <v>-8000</v>
       </c>
       <c r="E35" s="3">
         <v>-2574000</v>
@@ -2858,10 +2858,10 @@
         <v>238000</v>
       </c>
       <c r="G35" s="3">
-        <v>104000</v>
+        <v>1481000</v>
       </c>
       <c r="H35" s="3">
-        <v>220000</v>
+        <v>702000</v>
       </c>
       <c r="I35" s="3">
         <v>318000</v>
@@ -3580,7 +3580,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>128060000</v>
+        <v>130867000</v>
       </c>
       <c r="E47" s="3">
         <v>125812000</v>
@@ -3592,7 +3592,7 @@
         <v>139784000</v>
       </c>
       <c r="H47" s="3">
-        <v>148193000</v>
+        <v>148189000</v>
       </c>
       <c r="I47" s="3">
         <v>150697000</v>
@@ -4161,7 +4161,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>335437000</v>
+        <v>334217000</v>
       </c>
       <c r="E54" s="3">
         <v>324683000</v>
@@ -4173,7 +4173,7 @@
         <v>365929000</v>
       </c>
       <c r="H54" s="3">
-        <v>387301000</v>
+        <v>386945000</v>
       </c>
       <c r="I54" s="3">
         <v>377052000</v>
@@ -4472,7 +4472,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>313199000</v>
+        <v>426387000</v>
       </c>
       <c r="E59" s="3">
         <v>306240000</v>
@@ -4484,7 +4484,7 @@
         <v>332644000</v>
       </c>
       <c r="H59" s="3">
-        <v>346585000</v>
+        <v>346593000</v>
       </c>
       <c r="I59" s="3">
         <v>336366000</v>
@@ -5053,7 +5053,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>331336000</v>
+        <v>329115000</v>
       </c>
       <c r="E66" s="3">
         <v>322466000</v>
@@ -5065,7 +5065,7 @@
         <v>351217000</v>
       </c>
       <c r="H66" s="3">
-        <v>367029000</v>
+        <v>366191000</v>
       </c>
       <c r="I66" s="3">
         <v>355882000</v>
@@ -5333,7 +5333,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>986000</v>
+        <v>1972000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -5499,7 +5499,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6239000</v>
+        <v>5924000</v>
       </c>
       <c r="E72" s="3">
         <v>6311000</v>
@@ -5511,7 +5511,7 @@
         <v>8876000</v>
       </c>
       <c r="H72" s="3">
-        <v>9096000</v>
+        <v>9578000</v>
       </c>
       <c r="I72" s="3">
         <v>9365000</v>
@@ -5831,7 +5831,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3115000</v>
+        <v>3130000</v>
       </c>
       <c r="E76" s="3">
         <v>2217000</v>
@@ -5843,7 +5843,7 @@
         <v>14712000</v>
       </c>
       <c r="H76" s="3">
-        <v>20272000</v>
+        <v>20754000</v>
       </c>
       <c r="I76" s="3">
         <v>21170000</v>
@@ -6085,7 +6085,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6000</v>
+        <v>-8000</v>
       </c>
       <c r="E81" s="3">
         <v>-2574000</v>
@@ -6094,10 +6094,10 @@
         <v>238000</v>
       </c>
       <c r="G81" s="3">
-        <v>104000</v>
+        <v>1481000</v>
       </c>
       <c r="H81" s="3">
-        <v>220000</v>
+        <v>702000</v>
       </c>
       <c r="I81" s="3">
         <v>318000</v>
@@ -6697,7 +6697,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>639000</v>
+        <v>642000</v>
       </c>
       <c r="E89" s="3">
         <v>686000</v>
@@ -6709,7 +6709,7 @@
         <v>753000</v>
       </c>
       <c r="H89" s="3">
-        <v>43000</v>
+        <v>60000</v>
       </c>
       <c r="I89" s="3">
         <v>339000</v>
@@ -7060,7 +7060,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1776000</v>
+        <v>-1779000</v>
       </c>
       <c r="E94" s="3">
         <v>-3118000</v>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,199 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4952000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3195000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4177000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4798000</v>
       </c>
-      <c r="F8" s="3">
-        <v>5104000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="I8" s="3">
         <v>6079000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5235000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5241000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4851000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4534000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4136000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5361000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3517000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4425000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4346000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4640000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4314000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3973000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4542000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4278000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4028000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3619000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3626000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3532000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>3593000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>3522000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>3339000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,8 +939,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1028,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1065,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1150,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,114 +1239,126 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>634000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>8000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1000</v>
       </c>
       <c r="W14" s="3">
         <v>2000</v>
       </c>
       <c r="X14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z14" s="3">
         <v>906000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>9000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>4000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>4000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>32000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1331,50 +1375,56 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>15000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>15000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>19000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>18000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>2000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>1000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="Y15" s="3">
         <v>1000</v>
       </c>
-      <c r="Z15" s="3">
-        <v>1000</v>
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA15" s="3">
         <v>1000</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1451,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4225000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4258000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4104000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7820000</v>
       </c>
-      <c r="F17" s="3">
-        <v>4723000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>3956000</v>
+      </c>
+      <c r="I17" s="3">
         <v>4147000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4292000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4784000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3993000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4194000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3958000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4815000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3580000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4311000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3772000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4761000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3808000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3619000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3977000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3657000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3489000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3072000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3935000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2943000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2976000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2966000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2950000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>727000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1063000</v>
+      </c>
+      <c r="F18" s="3">
         <v>73000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3022000</v>
       </c>
-      <c r="F18" s="3">
-        <v>381000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1932000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>943000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>457000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>858000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>340000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>178000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>546000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-63000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>114000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>574000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-121000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>506000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>354000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>565000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>621000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>539000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>547000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-309000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>589000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>617000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>556000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>389000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,91 +1662,99 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-49000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-44000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-44000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-31000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-30000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-22000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-21000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-13000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-23000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-18000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-14000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1734,287 +1806,311 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>549000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>604000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>523000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>533000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-319000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>579000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>603000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>548000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>381000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F22" s="3">
         <v>78000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>71000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>68000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>66000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>66000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>67000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>65000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>65000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>66000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>66000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>84000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>65000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>74000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>115000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>70000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>71000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>78000</v>
       </c>
       <c r="U22" s="3">
         <v>71000</v>
       </c>
       <c r="V22" s="3">
+        <v>78000</v>
+      </c>
+      <c r="W22" s="3">
+        <v>71000</v>
+      </c>
+      <c r="X22" s="3">
         <v>72000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>97000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>69000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>69000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>70000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>72000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>185000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1170000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-54000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3137000</v>
       </c>
-      <c r="F23" s="3">
-        <v>269000</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1835000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>847000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>368000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>772000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>262000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>89000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>460000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-161000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>34000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>481000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-250000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>421000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>268000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>467000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>532000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>451000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>435000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-388000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>510000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>533000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>475000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>196000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-563000</v>
       </c>
-      <c r="F24" s="3">
-        <v>31000</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>192000</v>
+      </c>
+      <c r="I24" s="3">
         <v>353000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>145000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>50000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>130000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>37000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-17000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>62000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-67000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-18000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>66000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-89000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>58000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>16000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>106000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>10000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>66000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>81000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>97000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>92000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>122000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>40000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>3000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2192,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-881000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2574000</v>
       </c>
-      <c r="F26" s="3">
-        <v>238000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>840000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1482000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>702000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>318000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>642000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>225000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>106000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>398000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-94000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>52000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>415000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-161000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>363000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>252000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>361000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>522000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>385000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>354000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-485000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>418000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>411000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>435000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>193000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-909000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2574000</v>
       </c>
-      <c r="F27" s="3">
-        <v>238000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>833000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1481000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>702000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>318000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>642000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>225000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>106000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>398000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-94000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>52000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>415000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-161000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>363000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>252000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>361000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>522000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>385000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>354000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-485000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>418000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>411000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>435000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>193000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2459,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2374,62 +2494,68 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>37000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>17000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>38000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-32000</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>13000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>1300000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2637,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2726,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F32" s="3">
         <v>49000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>44000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>44000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>31000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>30000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>22000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>21000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>13000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>23000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>19000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>18000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>10000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>10000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>14000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>9000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>8000</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-909000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2574000</v>
       </c>
-      <c r="F33" s="3">
-        <v>238000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>833000</v>
+      </c>
+      <c r="I33" s="3">
         <v>1481000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>702000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>318000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>642000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>225000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>143000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>398000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-94000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>52000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>432000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-161000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>363000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>252000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>399000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>490000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>385000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>367000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>815000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>418000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>411000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>435000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>193000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2993,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-909000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2574000</v>
       </c>
-      <c r="F35" s="3">
-        <v>238000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>833000</v>
+      </c>
+      <c r="I35" s="3">
         <v>1481000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>702000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>318000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>642000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>225000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>143000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>398000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-94000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>52000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>432000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-161000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>363000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>252000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>399000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>490000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>385000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>367000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>815000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>418000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>411000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>435000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>193000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3213,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,91 +3246,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3768000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3766000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3343000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1472000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1567000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1960000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2612000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2614000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2389000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1350000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1708000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2595000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4201000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6202000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2563000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2939000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3314000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1593000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2345000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1460000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1775000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2257000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1628000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1965000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1978000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1923000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>2722000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,91 +3420,103 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
         <v>583000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>656000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>671000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>580000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>584000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>583000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>653000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>486000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>498000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>490000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>562000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>465000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>440000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>553000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>607000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>570000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>592000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>574000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>480000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>396000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>370000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>365000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>465000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>430000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3408,8 +3598,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3491,8 +3687,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3574,91 +3776,103 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>133220000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>133663000</v>
+      </c>
+      <c r="F47" s="3">
         <v>130867000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>125812000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>131875000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>139784000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>148189000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>150697000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>150567000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>145106000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>150847000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>146279000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>141960000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>130835000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>131786000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>130319000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>124870000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>120764000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>114097000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>111968000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>111412000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>109209000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>112163000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>110743000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>109562000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>107618000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>105770000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3707,20 +3921,20 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>12000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>12000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>11000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>11000</v>
       </c>
       <c r="X48" s="3">
         <v>11000</v>
@@ -3729,19 +3943,25 @@
         <v>11000</v>
       </c>
       <c r="Z48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AB48" s="3">
         <v>23000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>24000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>24000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3752,10 +3972,10 @@
         <v>1144000</v>
       </c>
       <c r="F49" s="3">
-        <v>1778000</v>
+        <v>1144000</v>
       </c>
       <c r="G49" s="3">
-        <v>1778000</v>
+        <v>1144000</v>
       </c>
       <c r="H49" s="3">
         <v>1778000</v>
@@ -3794,25 +4014,25 @@
         <v>1778000</v>
       </c>
       <c r="T49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="U49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="V49" s="3">
         <v>1782000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1757000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1750000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1368000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1368000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>2273000</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>2273000</v>
       </c>
       <c r="AA49" s="3">
         <v>2273000</v>
@@ -3823,8 +4043,14 @@
       <c r="AC49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4132,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,8 +4221,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4072,8 +4310,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4399,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>348612000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>343142000</v>
+      </c>
+      <c r="F54" s="3">
         <v>334217000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>324683000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>335769000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>365929000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>386945000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>377052000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>380148000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>366760000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>365948000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>347804000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>339659000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>318649000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>334761000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>325278000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>322259000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>314299000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>298147000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>303850000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>298832000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>279237000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>281763000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>276785000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>271651000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>267468000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>261627000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4525,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,8 +4558,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4383,8 +4643,14 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4395,16 +4661,16 @@
         <v>500000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="H58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>300000</v>
@@ -4413,10 +4679,10 @@
         <v>300000</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4425,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>300000</v>
@@ -4436,121 +4702,133 @@
       <c r="S58" s="3">
         <v>300000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
+      <c r="T58" s="3">
+        <v>300000</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
+        <v>300000</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>250000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>450000</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>450000</v>
       </c>
       <c r="Z58" s="3">
         <v>450000</v>
       </c>
       <c r="AA58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="AC58" s="3">
         <v>200000</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>319165000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>313124000</v>
+      </c>
+      <c r="F59" s="3">
         <v>426387000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>306240000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>309977000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>332644000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>346593000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>336366000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>338377000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>327749000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>322744000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>304311000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>295071000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>277502000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>295223000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>284167000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>283850000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>278638000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>265262000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>277551000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>273082000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>252419000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>253550000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>247302000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>242933000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>240097000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>234761000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4632,91 +4910,103 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5954000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5974000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5955000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5959000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6498000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6561000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6325000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6323000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6334000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6294000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6682000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6714000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6736000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6748000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6067000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6070000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5621000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5572000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5839000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5804000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5826000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5648000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4894000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4900000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>4901000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5133000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>5345000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4798,8 +5088,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5177,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5266,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5355,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>342793000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>336410000</v>
+      </c>
+      <c r="F66" s="3">
         <v>329115000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>322466000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>326581000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>351217000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>366191000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>355882000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>358403000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>347167000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>343249000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>326255000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>318928000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>302074000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>315072000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>305279000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>303804000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>297882000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>283797000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>288780000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>283655000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>263252000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>264441000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>260471000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>255655000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>252495000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>247149000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5481,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5566,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,19 +5655,25 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1972000</v>
+        <v>986000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>986000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>986000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -5410,8 +5744,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5833,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5362000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4940000</v>
+      </c>
+      <c r="F72" s="3">
         <v>5924000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>6311000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>8985000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>8876000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>9578000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>9365000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9245000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>8775000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>8686000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>8647000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>8327000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>8500000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>8854000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>8559000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>8878000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>8679000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>8551000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>8615000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>8302000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>8052000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>8399000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>7738000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>7511000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>7287000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>7043000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +6011,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +6100,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6189,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3130000</v>
+        <v>4833000</v>
       </c>
       <c r="E76" s="3">
+        <v>5746000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4116000</v>
+      </c>
+      <c r="G76" s="3">
         <v>2217000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9188000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14712000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>20754000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>21170000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>21745000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>19593000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>22699000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>21549000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>20731000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>16575000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>19689000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>19999000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>18455000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>16417000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>14350000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>15070000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>15177000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>15985000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>17322000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>16314000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>15996000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>14973000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>14478000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6367,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-909000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2574000</v>
       </c>
-      <c r="F81" s="3">
-        <v>238000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>833000</v>
+      </c>
+      <c r="I81" s="3">
         <v>1481000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>702000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>318000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>642000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>225000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>143000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>398000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-94000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>52000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>432000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-161000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>363000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>252000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>399000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>490000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>385000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>367000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>815000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>418000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>411000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>435000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>193000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,8 +6587,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6276,8 +6672,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6761,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6850,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6939,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +7028,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +7117,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>522000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-774000</v>
+      </c>
+      <c r="F89" s="3">
         <v>642000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>686000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1955000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>753000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>60000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>339000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>411000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-642000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>193000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-630000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>516000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>455000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>171000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-295000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>909000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>402000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>492000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>140000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>179000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>407000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>93000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>109000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>595000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,8 +7243,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6888,8 +7328,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7417,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7506,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-857000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-325000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1779000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-3118000</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-3119000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4608000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-2141000</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-2140000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1131000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-918000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-806000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-712000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>742000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>1074000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-595000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-780000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-505000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,8 +7632,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7180,79 +7646,85 @@
         <v>-77000</v>
       </c>
       <c r="F96" s="3">
-        <v>-78000</v>
+        <v>-76000</v>
       </c>
       <c r="G96" s="3">
-        <v>-79000</v>
+        <v>-77000</v>
       </c>
       <c r="H96" s="3">
         <v>-78000</v>
       </c>
       <c r="I96" s="3">
-        <v>-80000</v>
+        <v>-79000</v>
       </c>
       <c r="J96" s="3">
-        <v>-81000</v>
+        <v>-78000</v>
       </c>
       <c r="K96" s="3">
         <v>-80000</v>
       </c>
       <c r="L96" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-78000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-77000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-77000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-79000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-76000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-74000</v>
       </c>
       <c r="R96" s="3">
         <v>-76000</v>
       </c>
       <c r="S96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-77000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-72000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-72000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-73000</v>
       </c>
       <c r="W96" s="3">
         <v>-72000</v>
       </c>
       <c r="X96" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-64000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-66000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-65000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-58000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-58000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7806,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7895,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,91 +7984,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="F100" s="3">
         <v>3008000</v>
       </c>
-      <c r="E100" s="3">
-        <v>2337000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2260000</v>
-      </c>
       <c r="G100" s="3">
-        <v>736000</v>
+        <v>1995000</v>
       </c>
       <c r="H100" s="3">
+        <v>2326000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="J100" s="3">
         <v>1086000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>804000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1434000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>996000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1956000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2105000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1589000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2442000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2667000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2146000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1878000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1712000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1551000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1150000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>804000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1084000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>888000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>360000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>467000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>591000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>737000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7666,87 +8162,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>423000</v>
+      </c>
+      <c r="F102" s="3">
         <v>1871000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-95000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-393000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-652000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>225000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1039000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-358000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-887000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3639000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-376000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-375000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1721000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-752000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>885000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-315000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-482000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>629000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-337000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>55000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-799000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-722000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-669000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LNC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>LNC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5631000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4952000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3195000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4177000</v>
       </c>
-      <c r="G8" s="3">
-        <v>4798000</v>
-      </c>
       <c r="H8" s="3">
+        <v>5470000</v>
+      </c>
+      <c r="I8" s="3">
         <v>5100000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6079000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5235000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5241000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4851000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4534000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4136000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5361000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3517000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4425000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4346000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4640000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4314000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3973000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4542000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4278000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4028000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3619000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3626000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3532000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3593000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3522000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3339000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3532000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +951,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1043,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,46 +1261,49 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>634000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1293,49 +1312,52 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>2000</v>
       </c>
       <c r="W14" s="3">
         <v>2000</v>
       </c>
       <c r="X14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>906000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>9000</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>4000</v>
       </c>
       <c r="AC14" s="3">
         <v>4000</v>
       </c>
       <c r="AD14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AE14" s="3">
         <v>32000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1360,8 +1382,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1381,35 +1403,35 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="3">
-        <v>15000</v>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S15" s="3">
         <v>15000</v>
       </c>
       <c r="T15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="U15" s="3">
         <v>19000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>18000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>2000</v>
-      </c>
-      <c r="X15" s="3">
-        <v>1000</v>
       </c>
       <c r="Y15" s="3">
         <v>1000</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="Z15" s="3">
         <v>1000</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB15" s="3">
         <v>1000</v>
@@ -1417,14 +1439,17 @@
       <c r="AC15" s="3">
         <v>1000</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>5</v>
+      <c r="AD15" s="3">
+        <v>1000</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4477000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4225000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4258000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4104000</v>
       </c>
-      <c r="G17" s="3">
-        <v>7820000</v>
-      </c>
       <c r="H17" s="3">
+        <v>7481000</v>
+      </c>
+      <c r="I17" s="3">
         <v>3956000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4147000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4292000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4784000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3993000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4194000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3958000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4815000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3580000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4311000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3772000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4761000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3808000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3619000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3977000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3657000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3489000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3072000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3935000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2943000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2976000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2966000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2950000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2862000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1154000</v>
+      </c>
+      <c r="E18" s="3">
         <v>727000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1063000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>73000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3022000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2011000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1144000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1932000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>943000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>457000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>858000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>340000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>178000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>546000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>114000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>574000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-121000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>506000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>354000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>565000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>621000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>539000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>547000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-309000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>589000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>617000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>556000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>389000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1664,97 +1696,101 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-49000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-44000</v>
       </c>
       <c r="H20" s="3">
         <v>-44000</v>
       </c>
       <c r="I20" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-31000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-30000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-21000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-23000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-19000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-15000</v>
       </c>
       <c r="U20" s="3">
         <v>-15000</v>
       </c>
       <c r="V20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-15000</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-10000</v>
       </c>
       <c r="AA20" s="3">
         <v>-10000</v>
       </c>
       <c r="AB20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-14000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-9000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-8000</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1812,38 +1848,41 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>549000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>604000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>523000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>533000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-319000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>579000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>603000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>548000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>381000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,266 +1890,275 @@
         <v>84000</v>
       </c>
       <c r="E22" s="3">
+        <v>84000</v>
+      </c>
+      <c r="F22" s="3">
         <v>83000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>78000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>71000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>68000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>66000</v>
       </c>
       <c r="J22" s="3">
         <v>66000</v>
       </c>
       <c r="K22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="L22" s="3">
         <v>67000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>65000</v>
       </c>
       <c r="M22" s="3">
         <v>65000</v>
       </c>
       <c r="N22" s="3">
-        <v>66000</v>
+        <v>65000</v>
       </c>
       <c r="O22" s="3">
         <v>66000</v>
       </c>
       <c r="P22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>84000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>65000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>74000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>115000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>70000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>71000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>78000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>71000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>72000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>97000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>69000</v>
       </c>
       <c r="AA22" s="3">
         <v>69000</v>
       </c>
       <c r="AB22" s="3">
+        <v>69000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>70000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>72000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>185000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E23" s="3">
         <v>602000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1170000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-54000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3137000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2126000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1032000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1835000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>847000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>368000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>772000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>262000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>460000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>481000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-250000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>421000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>268000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>467000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>532000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>451000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>435000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-388000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>510000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>533000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>475000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>196000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>612000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E24" s="3">
         <v>91000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-289000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-46000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-563000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="I24" s="3">
         <v>192000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>353000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>145000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>130000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-17000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>62000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-18000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-89000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>58000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>106000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>66000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>81000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>97000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>92000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>122000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>40000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>3000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>853000</v>
+      </c>
+      <c r="E26" s="3">
         <v>511000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-881000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2574000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1776000</v>
+      </c>
+      <c r="I26" s="3">
         <v>840000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1482000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>702000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>318000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>642000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>225000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>106000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>398000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>52000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>415000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-161000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>363000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>252000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>361000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>522000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>385000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>354000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-485000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>418000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>411000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>435000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>193000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E27" s="3">
         <v>502000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-909000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2574000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1777000</v>
+      </c>
+      <c r="I27" s="3">
         <v>833000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1481000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>702000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>318000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>642000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>225000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>106000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>398000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>52000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>415000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-161000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>363000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>252000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>361000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>522000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>385000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>354000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-485000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>418000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>411000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>435000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>193000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2500,24 +2560,24 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>37000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>17000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2525,37 +2585,40 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>38000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-32000</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>13000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1300000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,186 +2798,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E32" s="3">
         <v>41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>49000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>44000</v>
       </c>
       <c r="H32" s="3">
         <v>44000</v>
       </c>
       <c r="I32" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J32" s="3">
         <v>31000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>30000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>21000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>23000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>19000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>15000</v>
       </c>
       <c r="U32" s="3">
         <v>15000</v>
       </c>
       <c r="V32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="W32" s="3">
         <v>20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>16000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>15000</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>10000</v>
       </c>
       <c r="AA32" s="3">
         <v>10000</v>
       </c>
       <c r="AB32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AC32" s="3">
         <v>14000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>9000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>8000</v>
       </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E33" s="3">
         <v>502000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-909000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2574000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-1777000</v>
+      </c>
+      <c r="I33" s="3">
         <v>833000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1481000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>702000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>318000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>642000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>225000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>143000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>398000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>52000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>432000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-161000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>363000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>252000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>399000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>490000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>385000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>367000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>815000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>418000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>411000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>435000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>193000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E35" s="3">
         <v>502000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-909000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2574000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-1777000</v>
+      </c>
+      <c r="I35" s="3">
         <v>833000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1481000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>702000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>318000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>642000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>225000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>143000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>398000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>52000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>432000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-161000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>363000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>252000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>399000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>490000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>385000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>367000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>815000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>418000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>411000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>435000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>193000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,97 +3333,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2529000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3768000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3766000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3343000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1472000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1567000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1960000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2612000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2614000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2389000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1350000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1708000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2595000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4201000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6202000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2563000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2939000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3314000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1593000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2345000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1460000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1775000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2257000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1628000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1965000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1978000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1923000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2722000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>3444000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3426,8 +3515,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3440,83 +3532,86 @@
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
         <v>583000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>656000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>671000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>580000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>584000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>583000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>653000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>486000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>498000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>490000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>562000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>465000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>440000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>553000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>607000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>570000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>592000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>574000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>480000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>396000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>370000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>365000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>465000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>430000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>355000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3604,8 +3699,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3693,8 +3791,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3782,97 +3883,103 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>130813000</v>
+      </c>
+      <c r="E47" s="3">
         <v>133220000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>133663000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>130867000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>125812000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>131875000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>139784000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>148189000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>150697000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>150567000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>145106000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>150847000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>146279000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>141960000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>130835000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>131786000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>130319000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>124870000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>120764000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>114097000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>111968000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>111412000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>109209000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>112163000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>110743000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>109562000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>107618000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>105770000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>109398000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3927,17 +4034,17 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
-        <v>12000</v>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W48" s="3">
         <v>12000</v>
       </c>
       <c r="X48" s="3">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Y48" s="3">
         <v>11000</v>
@@ -3949,19 +4056,22 @@
         <v>11000</v>
       </c>
       <c r="AB48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="AC48" s="3">
         <v>23000</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>24000</v>
       </c>
       <c r="AD48" s="3">
         <v>24000</v>
       </c>
       <c r="AE48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="AF48" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3978,7 +4088,7 @@
         <v>1144000</v>
       </c>
       <c r="H49" s="3">
-        <v>1778000</v>
+        <v>1144000</v>
       </c>
       <c r="I49" s="3">
         <v>1778000</v>
@@ -4020,22 +4130,22 @@
         <v>1778000</v>
       </c>
       <c r="V49" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="W49" s="3">
         <v>1782000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1757000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1750000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>1368000</v>
       </c>
       <c r="Z49" s="3">
         <v>1368000</v>
       </c>
       <c r="AA49" s="3">
-        <v>2273000</v>
+        <v>1368000</v>
       </c>
       <c r="AB49" s="3">
         <v>2273000</v>
@@ -4049,8 +4159,11 @@
       <c r="AE49" s="3">
         <v>2273000</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>2273000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,8 +4343,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4316,8 +4435,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>338411000</v>
+      </c>
+      <c r="E54" s="3">
         <v>348612000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>343142000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>334217000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>324683000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>335769000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>365929000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>386945000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>377052000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>380148000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>366760000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>365948000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>347804000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>339659000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>318649000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>334761000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>325278000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>322259000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>314299000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>298147000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>303850000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>298832000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>279237000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>281763000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>276785000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>271651000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>267468000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>261627000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>266605000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,8 +4689,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4649,13 +4779,16 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>500000</v>
@@ -4667,13 +4800,13 @@
         <v>500000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>300000</v>
@@ -4685,7 +4818,7 @@
         <v>300000</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4697,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>300000</v>
@@ -4708,20 +4841,20 @@
       <c r="U58" s="3">
         <v>300000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>250000</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>450000</v>
       </c>
       <c r="AA58" s="3">
         <v>450000</v>
@@ -4730,105 +4863,111 @@
         <v>450000</v>
       </c>
       <c r="AC58" s="3">
+        <v>450000</v>
+      </c>
+      <c r="AD58" s="3">
         <v>200000</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE58" s="3">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF58" s="3">
         <v>250000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>311813000</v>
+      </c>
+      <c r="E59" s="3">
         <v>319165000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>313124000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>426387000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>306240000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>309977000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>332644000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>346593000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>336366000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>338377000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>327749000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>322744000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>304311000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>295071000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>277502000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>295223000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>284167000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>283850000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>278638000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>265262000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>277551000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>273082000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>252419000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>253550000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>247302000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>242933000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>240097000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>234761000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>235341000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4916,97 +5055,103 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5905000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5954000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5974000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5955000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5959000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6498000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6561000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6325000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6323000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6334000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6294000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6682000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6714000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6736000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6748000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6067000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6070000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5621000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5572000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5839000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5804000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5826000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5648000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4894000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4900000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4901000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5133000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5345000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>5457000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5094,8 +5239,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>335212000</v>
+      </c>
+      <c r="E66" s="3">
         <v>342793000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>336410000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>329115000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>322466000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>326581000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>351217000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>366191000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>355882000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>358403000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>347167000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>343249000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>326255000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>318928000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>302074000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>315072000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>305279000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>303804000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>297882000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>283797000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>288780000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>283655000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>263252000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>264441000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>260471000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>255655000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>252495000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>247149000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>250282000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5676,7 +5843,7 @@
         <v>986000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>986000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6102000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5362000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4940000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5924000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6311000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8985000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8876000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9578000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9365000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9245000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8775000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8686000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8647000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8327000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8500000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8854000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8559000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8878000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8679000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8551000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8615000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8302000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8052000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8399000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7738000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7511000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7287000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7043000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>7037000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4833000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5746000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4116000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2217000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9188000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14712000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20754000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21170000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21745000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19593000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22699000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21549000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20731000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16575000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19689000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19999000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18455000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16417000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14350000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15070000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15177000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15985000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17322000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>16314000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>15996000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14973000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>14478000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>16323000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E81" s="3">
         <v>502000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-909000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2574000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-1777000</v>
+      </c>
+      <c r="I81" s="3">
         <v>833000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1481000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>702000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>318000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>642000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>225000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>143000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>398000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>52000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>432000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-161000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>363000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>252000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>399000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>490000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>385000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>367000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>815000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>418000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>411000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>435000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>193000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>467000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,8 +6786,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6678,8 +6876,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E89" s="3">
         <v>522000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-774000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>642000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>686000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1955000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>753000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>60000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>339000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>411000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-642000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>193000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-630000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>516000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>455000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>171000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-295000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1231000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1331000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>909000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>402000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>492000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>140000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>179000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>407000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>93000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>109000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>595000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>144000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,8 +7464,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7334,8 +7554,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1438000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-857000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-325000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1779000</v>
-      </c>
       <c r="G94" s="3">
-        <v>-3119000</v>
+        <v>-1783000</v>
       </c>
       <c r="H94" s="3">
+        <v>-3115000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4608000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2140000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1131000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-918000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-806000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-712000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3036000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4106000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>742000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3214000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2226000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1074000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1133000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1575000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1867000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1778000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-595000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1404000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-780000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-505000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1499000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2054000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1372000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,8 +7866,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7643,88 +7876,91 @@
         <v>-76000</v>
       </c>
       <c r="E96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-77000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-76000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-77000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-78000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-79000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-78000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-80000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-81000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-80000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-78000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-77000</v>
       </c>
       <c r="P96" s="3">
         <v>-77000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-79000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-76000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-74000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-76000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-77000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-72000</v>
       </c>
       <c r="W96" s="3">
         <v>-72000</v>
       </c>
       <c r="X96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-72000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-64000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-66000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-65000</v>
-      </c>
-      <c r="AD96" s="3">
-        <v>-58000</v>
       </c>
       <c r="AE96" s="3">
         <v>-58000</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-58000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,97 +8232,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E100" s="3">
         <v>337000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1522000</v>
       </c>
-      <c r="F100" s="3">
-        <v>3008000</v>
-      </c>
       <c r="G100" s="3">
-        <v>1995000</v>
+        <v>2633000</v>
       </c>
       <c r="H100" s="3">
+        <v>2370000</v>
+      </c>
+      <c r="I100" s="3">
         <v>2326000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1012000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1086000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>804000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1434000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>996000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1956000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2105000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1589000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2442000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2667000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2146000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1878000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1712000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1551000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1150000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>804000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1084000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>888000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>360000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>467000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>591000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>737000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8168,93 +8416,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1239000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>423000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1871000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-95000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-393000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-652000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>225000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1039000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-358000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-887000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1606000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2001000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3639000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-376000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-375000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1721000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-752000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>885000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-315000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-482000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>629000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-337000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>55000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-799000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-722000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-669000</v>
       </c>
     </row>
